--- a/Import Data/8x9.xlsx
+++ b/Import Data/8x9.xlsx
@@ -1,22 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Documents\GitHub\dbf-propulsions\Import Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87FEFC84-44E3-4465-9D3E-A5B1CAEE080A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="192" yWindow="84" windowWidth="10500" windowHeight="5856"/>
+    <workbookView xWindow="22395" yWindow="3510" windowWidth="14130" windowHeight="14790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="46">
   <si>
     <t>8x9</t>
   </si>
@@ -155,27 +174,12 @@
   <si>
     <t>(Lbf)</t>
   </si>
-  <si>
-    <t>0.85-NaN</t>
-  </si>
-  <si>
-    <t>0.90-NaN</t>
-  </si>
-  <si>
-    <t>1.18-NaN</t>
-  </si>
-  <si>
-    <t>1.32-NaN</t>
-  </si>
-  <si>
-    <t>1.37-NaN</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,6 +217,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -259,7 +271,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -291,9 +303,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -325,6 +355,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -500,16 +548,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I898"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A370" workbookViewId="0">
+      <selection activeCell="I850" sqref="I850"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -520,7 +568,7 @@
         <v>41998</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -549,12 +597,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -565,7 +613,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -588,7 +636,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -611,7 +659,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -619,7 +667,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -636,7 +684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -650,7 +698,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -676,7 +724,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -696,7 +744,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -722,7 +770,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.4</v>
       </c>
@@ -748,7 +796,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.7</v>
       </c>
@@ -774,7 +822,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1.1000000000000001</v>
       </c>
@@ -800,7 +848,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1.5</v>
       </c>
@@ -826,7 +874,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1.8</v>
       </c>
@@ -852,7 +900,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2.2000000000000002</v>
       </c>
@@ -878,7 +926,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2.6</v>
       </c>
@@ -904,7 +952,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2.9</v>
       </c>
@@ -930,7 +978,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3.3</v>
       </c>
@@ -956,7 +1004,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3.6</v>
       </c>
@@ -982,7 +1030,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4</v>
       </c>
@@ -1008,7 +1056,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>4.4000000000000004</v>
       </c>
@@ -1034,7 +1082,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4.7</v>
       </c>
@@ -1060,7 +1108,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>5.0999999999999996</v>
       </c>
@@ -1086,7 +1134,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>5.5</v>
       </c>
@@ -1112,7 +1160,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>5.8</v>
       </c>
@@ -1138,7 +1186,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>6.2</v>
       </c>
@@ -1164,7 +1212,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>6.6</v>
       </c>
@@ -1190,7 +1238,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>6.9</v>
       </c>
@@ -1216,7 +1264,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>7.3</v>
       </c>
@@ -1242,7 +1290,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>7.7</v>
       </c>
@@ -1268,7 +1316,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>8</v>
       </c>
@@ -1294,7 +1342,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>8.4</v>
       </c>
@@ -1320,7 +1368,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>8.6999999999999993</v>
       </c>
@@ -1346,7 +1394,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>9.1</v>
       </c>
@@ -1372,7 +1420,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>9.5</v>
       </c>
@@ -1398,7 +1446,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>9.8000000000000007</v>
       </c>
@@ -1424,7 +1472,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>10.199999999999999</v>
       </c>
@@ -1450,7 +1498,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>10.6</v>
       </c>
@@ -1476,7 +1524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>30</v>
       </c>
@@ -1490,7 +1538,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>26</v>
       </c>
@@ -1516,7 +1564,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>40</v>
       </c>
@@ -1536,7 +1584,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>0</v>
       </c>
@@ -1562,7 +1610,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>0.7</v>
       </c>
@@ -1588,7 +1636,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1.5</v>
       </c>
@@ -1614,7 +1662,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2.2000000000000002</v>
       </c>
@@ -1640,7 +1688,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2.9</v>
       </c>
@@ -1666,7 +1714,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>3.6</v>
       </c>
@@ -1692,7 +1740,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>4.4000000000000004</v>
       </c>
@@ -1718,7 +1766,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>5.0999999999999996</v>
       </c>
@@ -1744,7 +1792,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>5.8</v>
       </c>
@@ -1770,7 +1818,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>6.6</v>
       </c>
@@ -1796,7 +1844,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>7.3</v>
       </c>
@@ -1822,7 +1870,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>8</v>
       </c>
@@ -1848,7 +1896,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>8.6999999999999993</v>
       </c>
@@ -1874,7 +1922,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>9.5</v>
       </c>
@@ -1900,7 +1948,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>10.199999999999999</v>
       </c>
@@ -1926,7 +1974,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>10.9</v>
       </c>
@@ -1952,7 +2000,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>11.7</v>
       </c>
@@ -1978,7 +2026,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>12.4</v>
       </c>
@@ -2004,7 +2052,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>13.1</v>
       </c>
@@ -2030,7 +2078,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>13.8</v>
       </c>
@@ -2056,7 +2104,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>14.6</v>
       </c>
@@ -2082,7 +2130,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>15.3</v>
       </c>
@@ -2108,7 +2156,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>16</v>
       </c>
@@ -2134,7 +2182,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>16.7</v>
       </c>
@@ -2160,7 +2208,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>17.5</v>
       </c>
@@ -2186,7 +2234,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>18.2</v>
       </c>
@@ -2212,7 +2260,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>18.899999999999999</v>
       </c>
@@ -2238,7 +2286,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>19.7</v>
       </c>
@@ -2264,7 +2312,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>20.399999999999999</v>
       </c>
@@ -2290,7 +2338,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>21.1</v>
       </c>
@@ -2316,7 +2364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>30</v>
       </c>
@@ -2330,7 +2378,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>26</v>
       </c>
@@ -2356,7 +2404,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>40</v>
       </c>
@@ -2376,7 +2424,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>0</v>
       </c>
@@ -2402,7 +2450,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1.1000000000000001</v>
       </c>
@@ -2428,7 +2476,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2.2000000000000002</v>
       </c>
@@ -2454,7 +2502,7 @@
         <v>0.13300000000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>3.3</v>
       </c>
@@ -2480,7 +2528,7 @@
         <v>0.13300000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>4.4000000000000004</v>
       </c>
@@ -2506,7 +2554,7 @@
         <v>0.13300000000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>5.5</v>
       </c>
@@ -2532,7 +2580,7 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>6.6</v>
       </c>
@@ -2558,7 +2606,7 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>7.6</v>
       </c>
@@ -2584,7 +2632,7 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>8.6999999999999993</v>
       </c>
@@ -2610,7 +2658,7 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>9.8000000000000007</v>
       </c>
@@ -2636,7 +2684,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>10.9</v>
       </c>
@@ -2662,7 +2710,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>12</v>
       </c>
@@ -2688,7 +2736,7 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>13.1</v>
       </c>
@@ -2714,7 +2762,7 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>14.2</v>
       </c>
@@ -2740,7 +2788,7 @@
         <v>0.13300000000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>15.3</v>
       </c>
@@ -2766,7 +2814,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>16.399999999999999</v>
       </c>
@@ -2792,7 +2840,7 @@
         <v>0.129</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>17.5</v>
       </c>
@@ -2818,7 +2866,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>18.600000000000001</v>
       </c>
@@ -2844,7 +2892,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>19.7</v>
       </c>
@@ -2870,7 +2918,7 @@
         <v>0.112</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>20.7</v>
       </c>
@@ -2896,7 +2944,7 @@
         <v>0.10199999999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>21.8</v>
       </c>
@@ -2922,7 +2970,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>22.9</v>
       </c>
@@ -2948,7 +2996,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>24</v>
       </c>
@@ -2974,7 +3022,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>25.1</v>
       </c>
@@ -3000,7 +3048,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>26.2</v>
       </c>
@@ -3026,7 +3074,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>27.3</v>
       </c>
@@ -3052,7 +3100,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>28.4</v>
       </c>
@@ -3078,7 +3126,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>29.5</v>
       </c>
@@ -3104,7 +3152,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>30.6</v>
       </c>
@@ -3130,7 +3178,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>31.7</v>
       </c>
@@ -3156,7 +3204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>30</v>
       </c>
@@ -3170,7 +3218,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>26</v>
       </c>
@@ -3196,7 +3244,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>40</v>
       </c>
@@ -3216,7 +3264,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>0</v>
       </c>
@@ -3242,7 +3290,7 @@
         <v>0.23499999999999999</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1.5</v>
       </c>
@@ -3268,7 +3316,7 @@
         <v>0.23499999999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>2.9</v>
       </c>
@@ -3294,7 +3342,7 @@
         <v>0.23599999999999999</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>4.4000000000000004</v>
       </c>
@@ -3320,7 +3368,7 @@
         <v>0.23599999999999999</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>5.8</v>
       </c>
@@ -3346,7 +3394,7 @@
         <v>0.23699999999999999</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>7.3</v>
       </c>
@@ -3372,7 +3420,7 @@
         <v>0.23799999999999999</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>8.6999999999999993</v>
       </c>
@@ -3398,7 +3446,7 @@
         <v>0.23799999999999999</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>10.199999999999999</v>
       </c>
@@ -3424,7 +3472,7 @@
         <v>0.23899999999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>11.6</v>
       </c>
@@ -3450,7 +3498,7 @@
         <v>0.23899999999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>13.1</v>
       </c>
@@ -3476,7 +3524,7 @@
         <v>0.23899999999999999</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>14.6</v>
       </c>
@@ -3502,7 +3550,7 @@
         <v>0.23899999999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>16</v>
       </c>
@@ -3528,7 +3576,7 @@
         <v>0.23899999999999999</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>17.5</v>
       </c>
@@ -3554,7 +3602,7 @@
         <v>0.23799999999999999</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>18.899999999999999</v>
       </c>
@@ -3580,7 +3628,7 @@
         <v>0.23699999999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>20.399999999999999</v>
       </c>
@@ -3606,7 +3654,7 @@
         <v>0.23400000000000001</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>21.8</v>
       </c>
@@ -3632,7 +3680,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>23.3</v>
       </c>
@@ -3658,7 +3706,7 @@
         <v>0.223</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>24.8</v>
       </c>
@@ -3684,7 +3732,7 @@
         <v>0.21299999999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>26.2</v>
       </c>
@@ -3710,7 +3758,7 @@
         <v>0.19900000000000001</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>27.7</v>
       </c>
@@ -3736,7 +3784,7 @@
         <v>0.182</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>29.1</v>
       </c>
@@ -3762,7 +3810,7 @@
         <v>0.16500000000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>30.6</v>
       </c>
@@ -3788,7 +3836,7 @@
         <v>0.14799999999999999</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>32</v>
       </c>
@@ -3814,7 +3862,7 @@
         <v>0.13100000000000001</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>33.5</v>
       </c>
@@ -3840,7 +3888,7 @@
         <v>0.113</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>34.9</v>
       </c>
@@ -3866,7 +3914,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>36.4</v>
       </c>
@@ -3892,7 +3940,7 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>37.9</v>
       </c>
@@ -3918,7 +3966,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>39.299999999999997</v>
       </c>
@@ -3944,7 +3992,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>40.799999999999997</v>
       </c>
@@ -3970,7 +4018,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>42.2</v>
       </c>
@@ -3996,7 +4044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>30</v>
       </c>
@@ -4010,7 +4058,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>26</v>
       </c>
@@ -4036,7 +4084,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>40</v>
       </c>
@@ -4056,7 +4104,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>0</v>
       </c>
@@ -4082,7 +4130,7 @@
         <v>0.36699999999999999</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1.8</v>
       </c>
@@ -4108,7 +4156,7 @@
         <v>0.36799999999999999</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>3.6</v>
       </c>
@@ -4134,7 +4182,7 @@
         <v>0.36799999999999999</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>5.5</v>
       </c>
@@ -4160,7 +4208,7 @@
         <v>0.36899999999999999</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>7.3</v>
       </c>
@@ -4186,7 +4234,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>9.1</v>
       </c>
@@ -4212,7 +4260,7 @@
         <v>0.371</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>10.9</v>
       </c>
@@ -4238,7 +4286,7 @@
         <v>0.372</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>12.7</v>
       </c>
@@ -4264,7 +4312,7 @@
         <v>0.373</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>14.6</v>
       </c>
@@ -4290,7 +4338,7 @@
         <v>0.373</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>16.399999999999999</v>
       </c>
@@ -4316,7 +4364,7 @@
         <v>0.374</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>18.2</v>
       </c>
@@ -4342,7 +4390,7 @@
         <v>0.374</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>20</v>
       </c>
@@ -4368,7 +4416,7 @@
         <v>0.374</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>21.8</v>
       </c>
@@ -4394,7 +4442,7 @@
         <v>0.373</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>23.7</v>
       </c>
@@ -4420,7 +4468,7 @@
         <v>0.371</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>25.5</v>
       </c>
@@ -4446,7 +4494,7 @@
         <v>0.36699999999999999</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>27.3</v>
       </c>
@@ -4472,7 +4520,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>29.1</v>
       </c>
@@ -4498,7 +4546,7 @@
         <v>0.34899999999999998</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>30.9</v>
       </c>
@@ -4524,7 +4572,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>32.799999999999997</v>
       </c>
@@ -4550,7 +4598,7 @@
         <v>0.311</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>34.6</v>
       </c>
@@ -4576,7 +4624,7 @@
         <v>0.28499999999999998</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>36.4</v>
       </c>
@@ -4602,7 +4650,7 @@
         <v>0.25900000000000001</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>38.200000000000003</v>
       </c>
@@ -4628,7 +4676,7 @@
         <v>0.23200000000000001</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>40</v>
       </c>
@@ -4654,7 +4702,7 @@
         <v>0.20499999999999999</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>41.9</v>
       </c>
@@ -4680,7 +4728,7 @@
         <v>0.17799999999999999</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>43.7</v>
       </c>
@@ -4706,7 +4754,7 @@
         <v>0.14899999999999999</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>45.5</v>
       </c>
@@ -4732,7 +4780,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>47.3</v>
       </c>
@@ -4758,7 +4806,7 @@
         <v>9.0999999999999998E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>49.1</v>
       </c>
@@ -4784,7 +4832,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>51</v>
       </c>
@@ -4810,7 +4858,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>52.8</v>
       </c>
@@ -4836,7 +4884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>30</v>
       </c>
@@ -4850,7 +4898,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>26</v>
       </c>
@@ -4876,7 +4924,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>40</v>
       </c>
@@ -4896,7 +4944,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>0</v>
       </c>
@@ -4922,7 +4970,7 @@
         <v>0.52800000000000002</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>2.2000000000000002</v>
       </c>
@@ -4948,7 +4996,7 @@
         <v>0.52900000000000003</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>4.4000000000000004</v>
       </c>
@@ -4974,7 +5022,7 @@
         <v>0.53100000000000003</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>6.5</v>
       </c>
@@ -5000,7 +5048,7 @@
         <v>0.53200000000000003</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>8.6999999999999993</v>
       </c>
@@ -5026,7 +5074,7 @@
         <v>0.53300000000000003</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>10.9</v>
       </c>
@@ -5052,7 +5100,7 @@
         <v>0.53500000000000003</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>13.1</v>
       </c>
@@ -5078,7 +5126,7 @@
         <v>0.53600000000000003</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>15.3</v>
       </c>
@@ -5104,7 +5152,7 @@
         <v>0.53700000000000003</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>17.5</v>
       </c>
@@ -5130,7 +5178,7 @@
         <v>0.53800000000000003</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>19.600000000000001</v>
       </c>
@@ -5156,7 +5204,7 @@
         <v>0.53900000000000003</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>21.8</v>
       </c>
@@ -5182,7 +5230,7 @@
         <v>0.53900000000000003</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>24</v>
       </c>
@@ -5208,7 +5256,7 @@
         <v>0.53800000000000003</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>26.2</v>
       </c>
@@ -5234,7 +5282,7 @@
         <v>0.53700000000000003</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>28.4</v>
       </c>
@@ -5260,7 +5308,7 @@
         <v>0.53500000000000003</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>30.6</v>
       </c>
@@ -5286,7 +5334,7 @@
         <v>0.52900000000000003</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>32.700000000000003</v>
       </c>
@@ -5312,7 +5360,7 @@
         <v>0.51900000000000002</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>34.9</v>
       </c>
@@ -5338,7 +5386,7 @@
         <v>0.503</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>37.1</v>
       </c>
@@ -5364,7 +5412,7 @@
         <v>0.48099999999999998</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>39.299999999999997</v>
       </c>
@@ -5390,7 +5438,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>41.5</v>
       </c>
@@ -5416,7 +5464,7 @@
         <v>0.41199999999999998</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>43.7</v>
       </c>
@@ -5442,7 +5490,7 @@
         <v>0.374</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>45.8</v>
       </c>
@@ -5468,7 +5516,7 @@
         <v>0.33600000000000002</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>48</v>
       </c>
@@ -5494,7 +5542,7 @@
         <v>0.29699999999999999</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>50.2</v>
       </c>
@@ -5520,7 +5568,7 @@
         <v>0.25700000000000001</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>52.4</v>
       </c>
@@ -5546,7 +5594,7 @@
         <v>0.216</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>54.6</v>
       </c>
@@ -5572,7 +5620,7 @@
         <v>0.17399999999999999</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>56.8</v>
       </c>
@@ -5598,7 +5646,7 @@
         <v>0.13100000000000001</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>58.9</v>
       </c>
@@ -5624,7 +5672,7 @@
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>61.1</v>
       </c>
@@ -5650,7 +5698,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>63.3</v>
       </c>
@@ -5676,7 +5724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>30</v>
       </c>
@@ -5690,7 +5738,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>26</v>
       </c>
@@ -5716,7 +5764,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>40</v>
       </c>
@@ -5736,7 +5784,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>0</v>
       </c>
@@ -5762,7 +5810,7 @@
         <v>0.71899999999999997</v>
       </c>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>2.5</v>
       </c>
@@ -5788,7 +5836,7 @@
         <v>0.72099999999999997</v>
       </c>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>5.0999999999999996</v>
       </c>
@@ -5814,7 +5862,7 @@
         <v>0.72199999999999998</v>
       </c>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>7.6</v>
       </c>
@@ -5840,7 +5888,7 @@
         <v>0.72399999999999998</v>
       </c>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>10.199999999999999</v>
       </c>
@@ -5866,7 +5914,7 @@
         <v>0.72599999999999998</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>12.7</v>
       </c>
@@ -5892,7 +5940,7 @@
         <v>0.72799999999999998</v>
       </c>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>15.3</v>
       </c>
@@ -5918,7 +5966,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>17.8</v>
       </c>
@@ -5944,7 +5992,7 @@
         <v>0.73099999999999998</v>
       </c>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>20.399999999999999</v>
       </c>
@@ -5970,7 +6018,7 @@
         <v>0.73199999999999998</v>
       </c>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>22.9</v>
       </c>
@@ -5996,7 +6044,7 @@
         <v>0.73299999999999998</v>
       </c>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>25.5</v>
       </c>
@@ -6022,7 +6070,7 @@
         <v>0.73399999999999999</v>
       </c>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>28</v>
       </c>
@@ -6048,7 +6096,7 @@
         <v>0.73299999999999998</v>
       </c>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>30.6</v>
       </c>
@@ -6074,7 +6122,7 @@
         <v>0.73199999999999998</v>
       </c>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>33.1</v>
       </c>
@@ -6100,7 +6148,7 @@
         <v>0.72799999999999998</v>
       </c>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>35.700000000000003</v>
       </c>
@@ -6126,7 +6174,7 @@
         <v>0.72099999999999997</v>
       </c>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>38.200000000000003</v>
       </c>
@@ -6152,7 +6200,7 @@
         <v>0.70699999999999996</v>
       </c>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>40.799999999999997</v>
       </c>
@@ -6178,7 +6226,7 @@
         <v>0.68600000000000005</v>
       </c>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>43.3</v>
       </c>
@@ -6204,7 +6252,7 @@
         <v>0.65600000000000003</v>
       </c>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>45.9</v>
       </c>
@@ -6230,7 +6278,7 @@
         <v>0.61399999999999999</v>
       </c>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>48.4</v>
       </c>
@@ -6256,7 +6304,7 @@
         <v>0.56200000000000006</v>
       </c>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>51</v>
       </c>
@@ -6282,7 +6330,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>53.5</v>
       </c>
@@ -6308,7 +6356,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>56.1</v>
       </c>
@@ -6334,7 +6382,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>58.6</v>
       </c>
@@ -6360,7 +6408,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>61.2</v>
       </c>
@@ -6386,7 +6434,7 @@
         <v>0.29399999999999998</v>
       </c>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>63.7</v>
       </c>
@@ -6412,7 +6460,7 @@
         <v>0.23699999999999999</v>
       </c>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>66.2</v>
       </c>
@@ -6438,7 +6486,7 @@
         <v>0.17899999999999999</v>
       </c>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>68.8</v>
       </c>
@@ -6464,7 +6512,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>71.3</v>
       </c>
@@ -6490,7 +6538,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>73.900000000000006</v>
       </c>
@@ -6516,7 +6564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>30</v>
       </c>
@@ -6530,7 +6578,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>26</v>
       </c>
@@ -6556,7 +6604,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>40</v>
       </c>
@@ -6576,7 +6624,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="277" spans="1:8">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>0</v>
       </c>
@@ -6602,7 +6650,7 @@
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>2.9</v>
       </c>
@@ -6628,7 +6676,7 @@
         <v>0.94099999999999995</v>
       </c>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>5.8</v>
       </c>
@@ -6654,7 +6702,7 @@
         <v>0.94399999999999995</v>
       </c>
     </row>
-    <row r="280" spans="1:8">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>8.6999999999999993</v>
       </c>
@@ -6680,7 +6728,7 @@
         <v>0.94599999999999995</v>
       </c>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>11.6</v>
       </c>
@@ -6706,7 +6754,7 @@
         <v>0.94799999999999995</v>
       </c>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>14.6</v>
       </c>
@@ -6732,7 +6780,7 @@
         <v>0.95099999999999996</v>
       </c>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>17.5</v>
       </c>
@@ -6758,7 +6806,7 @@
         <v>0.95299999999999996</v>
       </c>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>20.399999999999999</v>
       </c>
@@ -6784,7 +6832,7 @@
         <v>0.95499999999999996</v>
       </c>
     </row>
-    <row r="285" spans="1:8">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>23.3</v>
       </c>
@@ -6810,7 +6858,7 @@
         <v>0.95699999999999996</v>
       </c>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>26.2</v>
       </c>
@@ -6836,7 +6884,7 @@
         <v>0.95799999999999996</v>
       </c>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>29.1</v>
       </c>
@@ -6862,7 +6910,7 @@
         <v>0.95899999999999996</v>
       </c>
     </row>
-    <row r="288" spans="1:8">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>32</v>
       </c>
@@ -6888,7 +6936,7 @@
         <v>0.95799999999999996</v>
       </c>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>34.9</v>
       </c>
@@ -6914,7 +6962,7 @@
         <v>0.95599999999999996</v>
       </c>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>37.9</v>
       </c>
@@ -6940,7 +6988,7 @@
         <v>0.95199999999999996</v>
       </c>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>40.799999999999997</v>
       </c>
@@ -6966,7 +7014,7 @@
         <v>0.94199999999999995</v>
       </c>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>43.7</v>
       </c>
@@ -6992,7 +7040,7 @@
         <v>0.92500000000000004</v>
       </c>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>46.6</v>
       </c>
@@ -7018,7 +7066,7 @@
         <v>0.89800000000000002</v>
       </c>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>49.5</v>
       </c>
@@ -7044,7 +7092,7 @@
         <v>0.85899999999999999</v>
       </c>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>52.4</v>
       </c>
@@ -7070,7 +7118,7 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>55.3</v>
       </c>
@@ -7096,7 +7144,7 @@
         <v>0.73599999999999999</v>
       </c>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>58.2</v>
       </c>
@@ -7122,7 +7170,7 @@
         <v>0.66900000000000004</v>
       </c>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>61.2</v>
       </c>
@@ -7148,7 +7196,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="299" spans="1:8">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>64.099999999999994</v>
       </c>
@@ -7174,7 +7222,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>67</v>
       </c>
@@ -7200,7 +7248,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="301" spans="1:8">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>69.900000000000006</v>
       </c>
@@ -7226,7 +7274,7 @@
         <v>0.38500000000000001</v>
       </c>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>72.8</v>
       </c>
@@ -7252,7 +7300,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="303" spans="1:8">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>75.7</v>
       </c>
@@ -7278,7 +7326,7 @@
         <v>0.23300000000000001</v>
       </c>
     </row>
-    <row r="304" spans="1:8">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>78.599999999999994</v>
       </c>
@@ -7304,7 +7352,7 @@
         <v>0.156</v>
       </c>
     </row>
-    <row r="305" spans="1:8">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>81.5</v>
       </c>
@@ -7330,7 +7378,7 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="306" spans="1:8">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>84.4</v>
       </c>
@@ -7356,7 +7404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:8">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>30</v>
       </c>
@@ -7370,7 +7418,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="312" spans="1:8">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>26</v>
       </c>
@@ -7396,7 +7444,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="313" spans="1:8">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>40</v>
       </c>
@@ -7416,7 +7464,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="314" spans="1:8">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>0</v>
       </c>
@@ -7442,7 +7490,7 @@
         <v>1.1859999999999999</v>
       </c>
     </row>
-    <row r="315" spans="1:8">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>3.3</v>
       </c>
@@ -7468,7 +7516,7 @@
         <v>1.1890000000000001</v>
       </c>
     </row>
-    <row r="316" spans="1:8">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>6.5</v>
       </c>
@@ -7494,7 +7542,7 @@
         <v>1.1910000000000001</v>
       </c>
     </row>
-    <row r="317" spans="1:8">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>9.8000000000000007</v>
       </c>
@@ -7520,7 +7568,7 @@
         <v>1.194</v>
       </c>
     </row>
-    <row r="318" spans="1:8">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>13.1</v>
       </c>
@@ -7546,7 +7594,7 @@
         <v>1.1970000000000001</v>
       </c>
     </row>
-    <row r="319" spans="1:8">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>16.399999999999999</v>
       </c>
@@ -7572,7 +7620,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="320" spans="1:8">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>19.600000000000001</v>
       </c>
@@ -7598,7 +7646,7 @@
         <v>1.2030000000000001</v>
       </c>
     </row>
-    <row r="321" spans="1:8">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>22.9</v>
       </c>
@@ -7624,7 +7672,7 @@
         <v>1.206</v>
       </c>
     </row>
-    <row r="322" spans="1:8">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>26.2</v>
       </c>
@@ -7650,7 +7698,7 @@
         <v>1.208</v>
       </c>
     </row>
-    <row r="323" spans="1:8">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>29.5</v>
       </c>
@@ -7676,7 +7724,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="324" spans="1:8">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>32.700000000000003</v>
       </c>
@@ -7702,7 +7750,7 @@
         <v>1.2110000000000001</v>
       </c>
     </row>
-    <row r="325" spans="1:8">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>36</v>
       </c>
@@ -7728,7 +7776,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="326" spans="1:8">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>39.299999999999997</v>
       </c>
@@ -7754,7 +7802,7 @@
         <v>1.208</v>
       </c>
     </row>
-    <row r="327" spans="1:8">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>42.6</v>
       </c>
@@ -7780,7 +7828,7 @@
         <v>1.2030000000000001</v>
       </c>
     </row>
-    <row r="328" spans="1:8">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>45.8</v>
       </c>
@@ -7806,7 +7854,7 @@
         <v>1.1919999999999999</v>
       </c>
     </row>
-    <row r="329" spans="1:8">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>49.1</v>
       </c>
@@ -7832,7 +7880,7 @@
         <v>1.171</v>
       </c>
     </row>
-    <row r="330" spans="1:8">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>52.4</v>
       </c>
@@ -7858,7 +7906,7 @@
         <v>1.1379999999999999</v>
       </c>
     </row>
-    <row r="331" spans="1:8">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>55.7</v>
       </c>
@@ -7884,7 +7932,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="332" spans="1:8">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>58.9</v>
       </c>
@@ -7910,7 +7958,7 @@
         <v>1.0209999999999999</v>
       </c>
     </row>
-    <row r="333" spans="1:8">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>62.2</v>
       </c>
@@ -7936,7 +7984,7 @@
         <v>0.93600000000000005</v>
       </c>
     </row>
-    <row r="334" spans="1:8">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>65.5</v>
       </c>
@@ -7962,7 +8010,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="335" spans="1:8">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>68.8</v>
       </c>
@@ -7988,7 +8036,7 @@
         <v>0.76200000000000001</v>
       </c>
     </row>
-    <row r="336" spans="1:8">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>72</v>
       </c>
@@ -8014,7 +8062,7 @@
         <v>0.67300000000000004</v>
       </c>
     </row>
-    <row r="337" spans="1:8">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>75.3</v>
       </c>
@@ -8040,7 +8088,7 @@
         <v>0.58199999999999996</v>
       </c>
     </row>
-    <row r="338" spans="1:8">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>78.599999999999994</v>
       </c>
@@ -8066,7 +8114,7 @@
         <v>0.48899999999999999</v>
       </c>
     </row>
-    <row r="339" spans="1:8">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>81.8</v>
       </c>
@@ -8092,7 +8140,7 @@
         <v>0.39500000000000002</v>
       </c>
     </row>
-    <row r="340" spans="1:8">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>85.1</v>
       </c>
@@ -8118,7 +8166,7 @@
         <v>0.29799999999999999</v>
       </c>
     </row>
-    <row r="341" spans="1:8">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>88.4</v>
       </c>
@@ -8144,7 +8192,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="342" spans="1:8">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>91.7</v>
       </c>
@@ -8170,7 +8218,7 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="343" spans="1:8">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>94.9</v>
       </c>
@@ -8196,7 +8244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:8">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>30</v>
       </c>
@@ -8210,7 +8258,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="349" spans="1:8">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>26</v>
       </c>
@@ -8236,7 +8284,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="350" spans="1:8">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>40</v>
       </c>
@@ -8256,7 +8304,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="351" spans="1:8">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>0</v>
       </c>
@@ -8282,7 +8330,7 @@
         <v>1.4610000000000001</v>
       </c>
     </row>
-    <row r="352" spans="1:8">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>3.6</v>
       </c>
@@ -8308,7 +8356,7 @@
         <v>1.464</v>
       </c>
     </row>
-    <row r="353" spans="1:8">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>7.3</v>
       </c>
@@ -8334,7 +8382,7 @@
         <v>1.4670000000000001</v>
       </c>
     </row>
-    <row r="354" spans="1:8">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>10.9</v>
       </c>
@@ -8360,7 +8408,7 @@
         <v>1.4710000000000001</v>
       </c>
     </row>
-    <row r="355" spans="1:8">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>14.5</v>
       </c>
@@ -8386,7 +8434,7 @@
         <v>1.474</v>
       </c>
     </row>
-    <row r="356" spans="1:8">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>18.2</v>
       </c>
@@ -8412,7 +8460,7 @@
         <v>1.478</v>
       </c>
     </row>
-    <row r="357" spans="1:8">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>21.8</v>
       </c>
@@ -8438,7 +8486,7 @@
         <v>1.482</v>
       </c>
     </row>
-    <row r="358" spans="1:8">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>25.5</v>
       </c>
@@ -8464,7 +8512,7 @@
         <v>1.4850000000000001</v>
       </c>
     </row>
-    <row r="359" spans="1:8">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>29.1</v>
       </c>
@@ -8490,7 +8538,7 @@
         <v>1.488</v>
       </c>
     </row>
-    <row r="360" spans="1:8">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>32.700000000000003</v>
       </c>
@@ -8516,7 +8564,7 @@
         <v>1.49</v>
       </c>
     </row>
-    <row r="361" spans="1:8">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>36.4</v>
       </c>
@@ -8542,7 +8590,7 @@
         <v>1.492</v>
       </c>
     </row>
-    <row r="362" spans="1:8">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>40</v>
       </c>
@@ -8568,7 +8616,7 @@
         <v>1.492</v>
       </c>
     </row>
-    <row r="363" spans="1:8">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>43.6</v>
       </c>
@@ -8594,7 +8642,7 @@
         <v>1.49</v>
       </c>
     </row>
-    <row r="364" spans="1:8">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>47.3</v>
       </c>
@@ -8620,7 +8668,7 @@
         <v>1.4850000000000001</v>
       </c>
     </row>
-    <row r="365" spans="1:8">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>50.9</v>
       </c>
@@ -8646,7 +8694,7 @@
         <v>1.4730000000000001</v>
       </c>
     </row>
-    <row r="366" spans="1:8">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>54.6</v>
       </c>
@@ -8672,7 +8720,7 @@
         <v>1.4490000000000001</v>
       </c>
     </row>
-    <row r="367" spans="1:8">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>58.2</v>
       </c>
@@ -8698,7 +8746,7 @@
         <v>1.409</v>
       </c>
     </row>
-    <row r="368" spans="1:8">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>61.8</v>
       </c>
@@ -8724,7 +8772,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="369" spans="1:8">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>65.5</v>
       </c>
@@ -8750,7 +8798,7 @@
         <v>1.266</v>
       </c>
     </row>
-    <row r="370" spans="1:8">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>69.099999999999994</v>
       </c>
@@ -8776,7 +8824,7 @@
         <v>1.161</v>
       </c>
     </row>
-    <row r="371" spans="1:8">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>72.7</v>
       </c>
@@ -8802,7 +8850,7 @@
         <v>1.054</v>
       </c>
     </row>
-    <row r="372" spans="1:8">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>76.400000000000006</v>
       </c>
@@ -8828,7 +8876,7 @@
         <v>0.94499999999999995</v>
       </c>
     </row>
-    <row r="373" spans="1:8">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>80</v>
       </c>
@@ -8854,7 +8902,7 @@
         <v>0.83399999999999996</v>
       </c>
     </row>
-    <row r="374" spans="1:8">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>83.6</v>
       </c>
@@ -8880,7 +8928,7 @@
         <v>0.72099999999999997</v>
       </c>
     </row>
-    <row r="375" spans="1:8">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>87.3</v>
       </c>
@@ -8906,7 +8954,7 @@
         <v>0.60499999999999998</v>
       </c>
     </row>
-    <row r="376" spans="1:8">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>90.9</v>
       </c>
@@ -8932,7 +8980,7 @@
         <v>0.48799999999999999</v>
       </c>
     </row>
-    <row r="377" spans="1:8">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>94.6</v>
       </c>
@@ -8958,7 +9006,7 @@
         <v>0.36899999999999999</v>
       </c>
     </row>
-    <row r="378" spans="1:8">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>98.2</v>
       </c>
@@ -8984,7 +9032,7 @@
         <v>0.248</v>
       </c>
     </row>
-    <row r="379" spans="1:8">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>101.8</v>
       </c>
@@ -9010,7 +9058,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="380" spans="1:8">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>105.5</v>
       </c>
@@ -9036,7 +9084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:8">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>30</v>
       </c>
@@ -9050,7 +9098,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="386" spans="1:8">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>26</v>
       </c>
@@ -9076,7 +9124,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="387" spans="1:8">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>40</v>
       </c>
@@ -9096,7 +9144,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="388" spans="1:8">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>0</v>
       </c>
@@ -9122,7 +9170,7 @@
         <v>1.764</v>
       </c>
     </row>
-    <row r="389" spans="1:8">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>4</v>
       </c>
@@ -9148,7 +9196,7 @@
         <v>1.768</v>
       </c>
     </row>
-    <row r="390" spans="1:8">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>8</v>
       </c>
@@ -9174,7 +9222,7 @@
         <v>1.7709999999999999</v>
       </c>
     </row>
-    <row r="391" spans="1:8">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>12</v>
       </c>
@@ -9200,7 +9248,7 @@
         <v>1.7749999999999999</v>
       </c>
     </row>
-    <row r="392" spans="1:8">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>16</v>
       </c>
@@ -9226,7 +9274,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="393" spans="1:8">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>20</v>
       </c>
@@ -9252,7 +9300,7 @@
         <v>1.784</v>
       </c>
     </row>
-    <row r="394" spans="1:8">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>24</v>
       </c>
@@ -9278,7 +9326,7 @@
         <v>1.7889999999999999</v>
       </c>
     </row>
-    <row r="395" spans="1:8">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>28</v>
       </c>
@@ -9304,7 +9352,7 @@
         <v>1.7929999999999999</v>
       </c>
     </row>
-    <row r="396" spans="1:8">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>32</v>
       </c>
@@ -9330,7 +9378,7 @@
         <v>1.7969999999999999</v>
       </c>
     </row>
-    <row r="397" spans="1:8">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>36</v>
       </c>
@@ -9356,7 +9404,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="398" spans="1:8">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>40</v>
       </c>
@@ -9382,7 +9430,7 @@
         <v>1.802</v>
       </c>
     </row>
-    <row r="399" spans="1:8">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>44</v>
       </c>
@@ -9408,7 +9456,7 @@
         <v>1.8029999999999999</v>
       </c>
     </row>
-    <row r="400" spans="1:8">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>48</v>
       </c>
@@ -9434,7 +9482,7 @@
         <v>1.802</v>
       </c>
     </row>
-    <row r="401" spans="1:8">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>52</v>
       </c>
@@ -9460,7 +9508,7 @@
         <v>1.796</v>
       </c>
     </row>
-    <row r="402" spans="1:8">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>56</v>
       </c>
@@ -9486,7 +9534,7 @@
         <v>1.784</v>
       </c>
     </row>
-    <row r="403" spans="1:8">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>60</v>
       </c>
@@ -9512,7 +9560,7 @@
         <v>1.7569999999999999</v>
       </c>
     </row>
-    <row r="404" spans="1:8">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>64</v>
       </c>
@@ -9538,7 +9586,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="405" spans="1:8">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>68</v>
       </c>
@@ -9564,7 +9612,7 @@
         <v>1.64</v>
       </c>
     </row>
-    <row r="406" spans="1:8">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>72</v>
       </c>
@@ -9590,7 +9638,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="407" spans="1:8">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>76</v>
       </c>
@@ -9616,7 +9664,7 @@
         <v>1.4119999999999999</v>
       </c>
     </row>
-    <row r="408" spans="1:8">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>80</v>
       </c>
@@ -9642,7 +9690,7 @@
         <v>1.282</v>
       </c>
     </row>
-    <row r="409" spans="1:8">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>84</v>
       </c>
@@ -9668,7 +9716,7 @@
         <v>1.149</v>
       </c>
     </row>
-    <row r="410" spans="1:8">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>88</v>
       </c>
@@ -9694,7 +9742,7 @@
         <v>1.014</v>
       </c>
     </row>
-    <row r="411" spans="1:8">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>92</v>
       </c>
@@ -9720,7 +9768,7 @@
         <v>0.876</v>
       </c>
     </row>
-    <row r="412" spans="1:8">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>96</v>
       </c>
@@ -9746,7 +9794,7 @@
         <v>0.73599999999999999</v>
       </c>
     </row>
-    <row r="413" spans="1:8">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>100</v>
       </c>
@@ -9772,7 +9820,7 @@
         <v>0.59299999999999997</v>
       </c>
     </row>
-    <row r="414" spans="1:8">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>104</v>
       </c>
@@ -9798,7 +9846,7 @@
         <v>0.44800000000000001</v>
       </c>
     </row>
-    <row r="415" spans="1:8">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>108</v>
       </c>
@@ -9824,7 +9872,7 @@
         <v>0.30099999999999999</v>
       </c>
     </row>
-    <row r="416" spans="1:8">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>112</v>
       </c>
@@ -9850,7 +9898,7 @@
         <v>0.152</v>
       </c>
     </row>
-    <row r="417" spans="1:8">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>116</v>
       </c>
@@ -9876,7 +9924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:8">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>30</v>
       </c>
@@ -9890,7 +9938,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="423" spans="1:8">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>26</v>
       </c>
@@ -9916,7 +9964,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="424" spans="1:8">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>40</v>
       </c>
@@ -9936,7 +9984,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="425" spans="1:8">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>0</v>
       </c>
@@ -9962,7 +10010,7 @@
         <v>2.0960000000000001</v>
       </c>
     </row>
-    <row r="426" spans="1:8">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>4.4000000000000004</v>
       </c>
@@ -9988,7 +10036,7 @@
         <v>2.0990000000000002</v>
       </c>
     </row>
-    <row r="427" spans="1:8">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>8.6999999999999993</v>
       </c>
@@ -10014,7 +10062,7 @@
         <v>2.1040000000000001</v>
       </c>
     </row>
-    <row r="428" spans="1:8">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>13.1</v>
       </c>
@@ -10040,7 +10088,7 @@
         <v>2.1080000000000001</v>
       </c>
     </row>
-    <row r="429" spans="1:8">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>17.399999999999999</v>
       </c>
@@ -10066,7 +10114,7 @@
         <v>2.113</v>
       </c>
     </row>
-    <row r="430" spans="1:8">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>21.8</v>
       </c>
@@ -10092,7 +10140,7 @@
         <v>2.1190000000000002</v>
       </c>
     </row>
-    <row r="431" spans="1:8">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>26.2</v>
       </c>
@@ -10118,7 +10166,7 @@
         <v>2.125</v>
       </c>
     </row>
-    <row r="432" spans="1:8">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>30.5</v>
       </c>
@@ -10144,7 +10192,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="433" spans="1:8">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>34.9</v>
       </c>
@@ -10170,7 +10218,7 @@
         <v>2.1349999999999998</v>
       </c>
     </row>
-    <row r="434" spans="1:8">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>39.200000000000003</v>
       </c>
@@ -10196,7 +10244,7 @@
         <v>2.1389999999999998</v>
       </c>
     </row>
-    <row r="435" spans="1:8">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>43.6</v>
       </c>
@@ -10222,7 +10270,7 @@
         <v>2.1419999999999999</v>
       </c>
     </row>
-    <row r="436" spans="1:8">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>48</v>
       </c>
@@ -10248,7 +10296,7 @@
         <v>2.1440000000000001</v>
       </c>
     </row>
-    <row r="437" spans="1:8">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>52.3</v>
       </c>
@@ -10274,7 +10322,7 @@
         <v>2.1429999999999998</v>
       </c>
     </row>
-    <row r="438" spans="1:8">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>56.7</v>
       </c>
@@ -10300,7 +10348,7 @@
         <v>2.1379999999999999</v>
       </c>
     </row>
-    <row r="439" spans="1:8">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>61</v>
       </c>
@@ -10326,7 +10374,7 @@
         <v>2.1259999999999999</v>
       </c>
     </row>
-    <row r="440" spans="1:8">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>65.400000000000006</v>
       </c>
@@ -10352,7 +10400,7 @@
         <v>2.0960000000000001</v>
       </c>
     </row>
-    <row r="441" spans="1:8">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>69.8</v>
       </c>
@@ -10378,7 +10426,7 @@
         <v>2.044</v>
       </c>
     </row>
-    <row r="442" spans="1:8">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>74.099999999999994</v>
       </c>
@@ -10404,7 +10452,7 @@
         <v>1.962</v>
       </c>
     </row>
-    <row r="443" spans="1:8">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>78.5</v>
       </c>
@@ -10430,7 +10478,7 @@
         <v>1.8460000000000001</v>
       </c>
     </row>
-    <row r="444" spans="1:8">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>82.8</v>
       </c>
@@ -10456,7 +10504,7 @@
         <v>1.6930000000000001</v>
       </c>
     </row>
-    <row r="445" spans="1:8">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>87.2</v>
       </c>
@@ -10482,7 +10530,7 @@
         <v>1.5369999999999999</v>
       </c>
     </row>
-    <row r="446" spans="1:8">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>91.6</v>
       </c>
@@ -10508,7 +10556,7 @@
         <v>1.377</v>
       </c>
     </row>
-    <row r="447" spans="1:8">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>95.9</v>
       </c>
@@ -10534,7 +10582,7 @@
         <v>1.2150000000000001</v>
       </c>
     </row>
-    <row r="448" spans="1:8">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>100.3</v>
       </c>
@@ -10560,7 +10608,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="449" spans="1:8">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>104.6</v>
       </c>
@@ -10586,7 +10634,7 @@
         <v>0.88200000000000001</v>
       </c>
     </row>
-    <row r="450" spans="1:8">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>109</v>
       </c>
@@ -10612,7 +10660,7 @@
         <v>0.71099999999999997</v>
       </c>
     </row>
-    <row r="451" spans="1:8">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>113.4</v>
       </c>
@@ -10638,7 +10686,7 @@
         <v>0.53700000000000003</v>
       </c>
     </row>
-    <row r="452" spans="1:8">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>117.7</v>
       </c>
@@ -10664,7 +10712,7 @@
         <v>0.36099999999999999</v>
       </c>
     </row>
-    <row r="453" spans="1:8">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>122.1</v>
       </c>
@@ -10690,7 +10738,7 @@
         <v>0.182</v>
       </c>
     </row>
-    <row r="454" spans="1:8">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>126.5</v>
       </c>
@@ -10716,7 +10764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:8">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>30</v>
       </c>
@@ -10730,7 +10778,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="460" spans="1:8">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>26</v>
       </c>
@@ -10756,7 +10804,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="461" spans="1:8">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>40</v>
       </c>
@@ -10776,7 +10824,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="462" spans="1:8">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>0</v>
       </c>
@@ -10802,7 +10850,7 @@
         <v>2.4550000000000001</v>
       </c>
     </row>
-    <row r="463" spans="1:8">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>4.7</v>
       </c>
@@ -10828,7 +10876,7 @@
         <v>2.4590000000000001</v>
       </c>
     </row>
-    <row r="464" spans="1:8">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>9.4</v>
       </c>
@@ -10854,7 +10902,7 @@
         <v>2.464</v>
       </c>
     </row>
-    <row r="465" spans="1:8">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>14.2</v>
       </c>
@@ -10880,7 +10928,7 @@
         <v>2.4700000000000002</v>
       </c>
     </row>
-    <row r="466" spans="1:8">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>18.899999999999999</v>
       </c>
@@ -10906,7 +10954,7 @@
         <v>2.476</v>
       </c>
     </row>
-    <row r="467" spans="1:8">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>23.6</v>
       </c>
@@ -10932,7 +10980,7 @@
         <v>2.4820000000000002</v>
       </c>
     </row>
-    <row r="468" spans="1:8">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>28.3</v>
       </c>
@@ -10958,7 +11006,7 @@
         <v>2.4889999999999999</v>
       </c>
     </row>
-    <row r="469" spans="1:8">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>33.1</v>
       </c>
@@ -10984,7 +11032,7 @@
         <v>2.496</v>
       </c>
     </row>
-    <row r="470" spans="1:8">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>37.799999999999997</v>
       </c>
@@ -11010,7 +11058,7 @@
         <v>2.5019999999999998</v>
       </c>
     </row>
-    <row r="471" spans="1:8">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>42.5</v>
       </c>
@@ -11036,7 +11084,7 @@
         <v>2.5070000000000001</v>
       </c>
     </row>
-    <row r="472" spans="1:8">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>47.2</v>
       </c>
@@ -11062,7 +11110,7 @@
         <v>2.5110000000000001</v>
       </c>
     </row>
-    <row r="473" spans="1:8">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>51.9</v>
       </c>
@@ -11088,7 +11136,7 @@
         <v>2.5139999999999998</v>
       </c>
     </row>
-    <row r="474" spans="1:8">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>56.7</v>
       </c>
@@ -11114,7 +11162,7 @@
         <v>2.5139999999999998</v>
       </c>
     </row>
-    <row r="475" spans="1:8">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>61.4</v>
       </c>
@@ -11140,7 +11188,7 @@
         <v>2.5099999999999998</v>
       </c>
     </row>
-    <row r="476" spans="1:8">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>66.099999999999994</v>
       </c>
@@ -11166,7 +11214,7 @@
         <v>2.4980000000000002</v>
       </c>
     </row>
-    <row r="477" spans="1:8">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>70.8</v>
       </c>
@@ -11192,7 +11240,7 @@
         <v>2.4670000000000001</v>
       </c>
     </row>
-    <row r="478" spans="1:8">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>75.599999999999994</v>
       </c>
@@ -11218,7 +11266,7 @@
         <v>2.41</v>
       </c>
     </row>
-    <row r="479" spans="1:8">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>80.3</v>
       </c>
@@ -11244,7 +11292,7 @@
         <v>2.3159999999999998</v>
       </c>
     </row>
-    <row r="480" spans="1:8">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>85</v>
       </c>
@@ -11270,7 +11318,7 @@
         <v>2.181</v>
       </c>
     </row>
-    <row r="481" spans="1:8">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>89.7</v>
       </c>
@@ -11296,7 +11344,7 @@
         <v>2.0009999999999999</v>
       </c>
     </row>
-    <row r="482" spans="1:8">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>94.4</v>
       </c>
@@ -11322,7 +11370,7 @@
         <v>1.8169999999999999</v>
       </c>
     </row>
-    <row r="483" spans="1:8">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>99.2</v>
       </c>
@@ -11348,7 +11396,7 @@
         <v>1.629</v>
       </c>
     </row>
-    <row r="484" spans="1:8">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>103.9</v>
       </c>
@@ -11374,7 +11422,7 @@
         <v>1.4370000000000001</v>
       </c>
     </row>
-    <row r="485" spans="1:8">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>108.6</v>
       </c>
@@ -11400,7 +11448,7 @@
         <v>1.242</v>
       </c>
     </row>
-    <row r="486" spans="1:8">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>113.3</v>
       </c>
@@ -11426,7 +11474,7 @@
         <v>1.0429999999999999</v>
       </c>
     </row>
-    <row r="487" spans="1:8">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>118.1</v>
       </c>
@@ -11452,7 +11500,7 @@
         <v>0.84199999999999997</v>
       </c>
     </row>
-    <row r="488" spans="1:8">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>122.8</v>
       </c>
@@ -11478,7 +11526,7 @@
         <v>0.63600000000000001</v>
       </c>
     </row>
-    <row r="489" spans="1:8">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>127.5</v>
       </c>
@@ -11504,7 +11552,7 @@
         <v>0.42799999999999999</v>
       </c>
     </row>
-    <row r="490" spans="1:8">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>132.19999999999999</v>
       </c>
@@ -11530,7 +11578,7 @@
         <v>0.215</v>
       </c>
     </row>
-    <row r="491" spans="1:8">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>136.9</v>
       </c>
@@ -11556,7 +11604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:8">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>30</v>
       </c>
@@ -11570,7 +11618,7 @@
         <v>13999</v>
       </c>
     </row>
-    <row r="497" spans="1:8">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>26</v>
       </c>
@@ -11596,7 +11644,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="498" spans="1:8">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>40</v>
       </c>
@@ -11616,7 +11664,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="499" spans="1:8">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>0</v>
       </c>
@@ -11642,7 +11690,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="500" spans="1:8">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>5.0999999999999996</v>
       </c>
@@ -11668,7 +11716,7 @@
         <v>2.8759999999999999</v>
       </c>
     </row>
-    <row r="501" spans="1:8">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>10.199999999999999</v>
       </c>
@@ -11694,7 +11742,7 @@
         <v>2.883</v>
       </c>
     </row>
-    <row r="502" spans="1:8">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>15.2</v>
       </c>
@@ -11720,7 +11768,7 @@
         <v>2.891</v>
       </c>
     </row>
-    <row r="503" spans="1:8">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>20.3</v>
       </c>
@@ -11746,7 +11794,7 @@
         <v>2.899</v>
       </c>
     </row>
-    <row r="504" spans="1:8">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>25.4</v>
       </c>
@@ -11772,7 +11820,7 @@
         <v>2.9089999999999998</v>
       </c>
     </row>
-    <row r="505" spans="1:8">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>30.5</v>
       </c>
@@ -11798,7 +11846,7 @@
         <v>2.92</v>
       </c>
     </row>
-    <row r="506" spans="1:8">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>35.6</v>
       </c>
@@ -11824,7 +11872,7 @@
         <v>2.93</v>
       </c>
     </row>
-    <row r="507" spans="1:8">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>40.6</v>
       </c>
@@ -11850,7 +11898,7 @@
         <v>2.9390000000000001</v>
       </c>
     </row>
-    <row r="508" spans="1:8">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>45.7</v>
       </c>
@@ -11876,7 +11924,7 @@
         <v>2.948</v>
       </c>
     </row>
-    <row r="509" spans="1:8">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>50.8</v>
       </c>
@@ -11902,7 +11950,7 @@
         <v>2.9540000000000002</v>
       </c>
     </row>
-    <row r="510" spans="1:8">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>55.9</v>
       </c>
@@ -11928,7 +11976,7 @@
         <v>2.9580000000000002</v>
       </c>
     </row>
-    <row r="511" spans="1:8">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>61</v>
       </c>
@@ -11954,7 +12002,7 @@
         <v>2.9580000000000002</v>
       </c>
     </row>
-    <row r="512" spans="1:8">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>66</v>
       </c>
@@ -11980,7 +12028,7 @@
         <v>2.952</v>
       </c>
     </row>
-    <row r="513" spans="1:8">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>71.099999999999994</v>
       </c>
@@ -12006,7 +12054,7 @@
         <v>2.9359999999999999</v>
       </c>
     </row>
-    <row r="514" spans="1:8">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>76.2</v>
       </c>
@@ -12032,7 +12080,7 @@
         <v>2.899</v>
       </c>
     </row>
-    <row r="515" spans="1:8">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>81.3</v>
       </c>
@@ -12058,7 +12106,7 @@
         <v>2.8290000000000002</v>
       </c>
     </row>
-    <row r="516" spans="1:8">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>86.4</v>
       </c>
@@ -12084,7 +12132,7 @@
         <v>2.7160000000000002</v>
       </c>
     </row>
-    <row r="517" spans="1:8">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>91.5</v>
       </c>
@@ -12110,7 +12158,7 @@
         <v>2.5550000000000002</v>
       </c>
     </row>
-    <row r="518" spans="1:8">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>96.5</v>
       </c>
@@ -12136,7 +12184,7 @@
         <v>2.343</v>
       </c>
     </row>
-    <row r="519" spans="1:8">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>101.6</v>
       </c>
@@ -12162,7 +12210,7 @@
         <v>2.1280000000000001</v>
       </c>
     </row>
-    <row r="520" spans="1:8">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>106.7</v>
       </c>
@@ -12188,7 +12236,7 @@
         <v>1.9079999999999999</v>
       </c>
     </row>
-    <row r="521" spans="1:8">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>111.8</v>
       </c>
@@ -12214,7 +12262,7 @@
         <v>1.6850000000000001</v>
       </c>
     </row>
-    <row r="522" spans="1:8">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>116.9</v>
       </c>
@@ -12240,7 +12288,7 @@
         <v>1.4570000000000001</v>
       </c>
     </row>
-    <row r="523" spans="1:8">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>121.9</v>
       </c>
@@ -12266,7 +12314,7 @@
         <v>1.2250000000000001</v>
       </c>
     </row>
-    <row r="524" spans="1:8">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>127</v>
       </c>
@@ -12292,7 +12340,7 @@
         <v>0.98899999999999999</v>
       </c>
     </row>
-    <row r="525" spans="1:8">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>132.1</v>
       </c>
@@ -12318,7 +12366,7 @@
         <v>0.749</v>
       </c>
     </row>
-    <row r="526" spans="1:8">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>137.19999999999999</v>
       </c>
@@ -12344,7 +12392,7 @@
         <v>0.504</v>
       </c>
     </row>
-    <row r="527" spans="1:8">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>142.30000000000001</v>
       </c>
@@ -12370,7 +12418,7 @@
         <v>0.25700000000000001</v>
       </c>
     </row>
-    <row r="528" spans="1:8">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>147.30000000000001</v>
       </c>
@@ -12396,7 +12444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:8">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>30</v>
       </c>
@@ -12410,7 +12458,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="534" spans="1:8">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>26</v>
       </c>
@@ -12436,7 +12484,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="535" spans="1:8">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>40</v>
       </c>
@@ -12456,7 +12504,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="536" spans="1:8">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>0</v>
       </c>
@@ -12482,7 +12530,7 @@
         <v>3.37</v>
       </c>
     </row>
-    <row r="537" spans="1:8">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>5.4</v>
       </c>
@@ -12508,7 +12556,7 @@
         <v>3.38</v>
       </c>
     </row>
-    <row r="538" spans="1:8">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>10.9</v>
       </c>
@@ -12534,7 +12582,7 @@
         <v>3.3889999999999998</v>
       </c>
     </row>
-    <row r="539" spans="1:8">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>16.3</v>
       </c>
@@ -12560,7 +12608,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="540" spans="1:8">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>21.8</v>
       </c>
@@ -12586,7 +12634,7 @@
         <v>3.411</v>
       </c>
     </row>
-    <row r="541" spans="1:8">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>27.2</v>
       </c>
@@ -12612,7 +12660,7 @@
         <v>3.423</v>
       </c>
     </row>
-    <row r="542" spans="1:8">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>32.6</v>
       </c>
@@ -12638,7 +12686,7 @@
         <v>3.4340000000000002</v>
       </c>
     </row>
-    <row r="543" spans="1:8">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>38.1</v>
       </c>
@@ -12664,7 +12712,7 @@
         <v>3.4449999999999998</v>
       </c>
     </row>
-    <row r="544" spans="1:8">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>43.5</v>
       </c>
@@ -12690,7 +12738,7 @@
         <v>3.4550000000000001</v>
       </c>
     </row>
-    <row r="545" spans="1:8">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>49</v>
       </c>
@@ -12716,7 +12764,7 @@
         <v>3.4620000000000002</v>
       </c>
     </row>
-    <row r="546" spans="1:8">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>54.4</v>
       </c>
@@ -12742,7 +12790,7 @@
         <v>3.4649999999999999</v>
       </c>
     </row>
-    <row r="547" spans="1:8">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>59.9</v>
       </c>
@@ -12768,7 +12816,7 @@
         <v>3.4649999999999999</v>
       </c>
     </row>
-    <row r="548" spans="1:8">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>65.3</v>
       </c>
@@ -12794,7 +12842,7 @@
         <v>3.4590000000000001</v>
       </c>
     </row>
-    <row r="549" spans="1:8">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>70.7</v>
       </c>
@@ -12820,7 +12868,7 @@
         <v>3.4460000000000002</v>
       </c>
     </row>
-    <row r="550" spans="1:8">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>76.2</v>
       </c>
@@ -12846,7 +12894,7 @@
         <v>3.4220000000000002</v>
       </c>
     </row>
-    <row r="551" spans="1:8">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>81.599999999999994</v>
       </c>
@@ -12872,7 +12920,7 @@
         <v>3.3740000000000001</v>
       </c>
     </row>
-    <row r="552" spans="1:8">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>87.1</v>
       </c>
@@ -12898,7 +12946,7 @@
         <v>3.2879999999999998</v>
       </c>
     </row>
-    <row r="553" spans="1:8">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>92.5</v>
       </c>
@@ -12924,7 +12972,7 @@
         <v>3.1520000000000001</v>
       </c>
     </row>
-    <row r="554" spans="1:8">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>97.9</v>
       </c>
@@ -12950,7 +12998,7 @@
         <v>2.9630000000000001</v>
       </c>
     </row>
-    <row r="555" spans="1:8">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>103.4</v>
       </c>
@@ -12976,7 +13024,7 @@
         <v>2.7160000000000002</v>
       </c>
     </row>
-    <row r="556" spans="1:8">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>108.8</v>
       </c>
@@ -13002,7 +13050,7 @@
         <v>2.4660000000000002</v>
       </c>
     </row>
-    <row r="557" spans="1:8">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>114.3</v>
       </c>
@@ -13028,7 +13076,7 @@
         <v>2.2130000000000001</v>
       </c>
     </row>
-    <row r="558" spans="1:8">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>119.7</v>
       </c>
@@ -13054,7 +13102,7 @@
         <v>1.954</v>
       </c>
     </row>
-    <row r="559" spans="1:8">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>125.1</v>
       </c>
@@ -13080,7 +13128,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="560" spans="1:8">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>130.6</v>
       </c>
@@ -13106,7 +13154,7 @@
         <v>1.4219999999999999</v>
       </c>
     </row>
-    <row r="561" spans="1:8">
+    <row r="561" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>136</v>
       </c>
@@ -13132,7 +13180,7 @@
         <v>1.147</v>
       </c>
     </row>
-    <row r="562" spans="1:8">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>141.5</v>
       </c>
@@ -13158,7 +13206,7 @@
         <v>0.86699999999999999</v>
       </c>
     </row>
-    <row r="563" spans="1:8">
+    <row r="563" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>146.9</v>
       </c>
@@ -13184,7 +13232,7 @@
         <v>0.58399999999999996</v>
       </c>
     </row>
-    <row r="564" spans="1:8">
+    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>152.30000000000001</v>
       </c>
@@ -13210,7 +13258,7 @@
         <v>0.29799999999999999</v>
       </c>
     </row>
-    <row r="565" spans="1:8">
+    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>157.80000000000001</v>
       </c>
@@ -13236,7 +13284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:8">
+    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>30</v>
       </c>
@@ -13250,7 +13298,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="571" spans="1:8">
+    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>26</v>
       </c>
@@ -13276,7 +13324,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="572" spans="1:8">
+    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>40</v>
       </c>
@@ -13296,7 +13344,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="573" spans="1:8">
+    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A573">
         <v>0</v>
       </c>
@@ -13322,7 +13370,7 @@
         <v>3.919</v>
       </c>
     </row>
-    <row r="574" spans="1:8">
+    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A574">
         <v>5.8</v>
       </c>
@@ -13348,7 +13396,7 @@
         <v>3.9319999999999999</v>
       </c>
     </row>
-    <row r="575" spans="1:8">
+    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>11.6</v>
       </c>
@@ -13374,7 +13422,7 @@
         <v>3.9449999999999998</v>
       </c>
     </row>
-    <row r="576" spans="1:8">
+    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A576">
         <v>17.399999999999999</v>
       </c>
@@ -13400,7 +13448,7 @@
         <v>3.9590000000000001</v>
       </c>
     </row>
-    <row r="577" spans="1:8">
+    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>23.2</v>
       </c>
@@ -13426,7 +13474,7 @@
         <v>3.9729999999999999</v>
       </c>
     </row>
-    <row r="578" spans="1:8">
+    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>29</v>
       </c>
@@ -13452,7 +13500,7 @@
         <v>3.9870000000000001</v>
       </c>
     </row>
-    <row r="579" spans="1:8">
+    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A579">
         <v>34.799999999999997</v>
       </c>
@@ -13478,7 +13526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="580" spans="1:8">
+    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>40.6</v>
       </c>
@@ -13504,7 +13552,7 @@
         <v>4.0119999999999996</v>
       </c>
     </row>
-    <row r="581" spans="1:8">
+    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>46.4</v>
       </c>
@@ -13530,7 +13578,7 @@
         <v>4.0209999999999999</v>
       </c>
     </row>
-    <row r="582" spans="1:8">
+    <row r="582" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>52.2</v>
       </c>
@@ -13556,7 +13604,7 @@
         <v>4.0259999999999998</v>
       </c>
     </row>
-    <row r="583" spans="1:8">
+    <row r="583" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>58</v>
       </c>
@@ -13582,7 +13630,7 @@
         <v>4.0270000000000001</v>
       </c>
     </row>
-    <row r="584" spans="1:8">
+    <row r="584" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>63.8</v>
       </c>
@@ -13608,7 +13656,7 @@
         <v>4.0220000000000002</v>
       </c>
     </row>
-    <row r="585" spans="1:8">
+    <row r="585" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>69.599999999999994</v>
       </c>
@@ -13634,7 +13682,7 @@
         <v>4.01</v>
       </c>
     </row>
-    <row r="586" spans="1:8">
+    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>75.400000000000006</v>
       </c>
@@ -13660,7 +13708,7 @@
         <v>3.988</v>
       </c>
     </row>
-    <row r="587" spans="1:8">
+    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>81.2</v>
       </c>
@@ -13686,7 +13734,7 @@
         <v>3.9540000000000002</v>
       </c>
     </row>
-    <row r="588" spans="1:8">
+    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>87</v>
       </c>
@@ -13712,7 +13760,7 @@
         <v>3.8969999999999998</v>
       </c>
     </row>
-    <row r="589" spans="1:8">
+    <row r="589" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>92.8</v>
       </c>
@@ -13738,7 +13786,7 @@
         <v>3.7930000000000001</v>
       </c>
     </row>
-    <row r="590" spans="1:8">
+    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>98.6</v>
       </c>
@@ -13764,7 +13812,7 @@
         <v>3.633</v>
       </c>
     </row>
-    <row r="591" spans="1:8">
+    <row r="591" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>104.4</v>
       </c>
@@ -13790,7 +13838,7 @@
         <v>3.41</v>
       </c>
     </row>
-    <row r="592" spans="1:8">
+    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A592">
         <v>110.2</v>
       </c>
@@ -13816,7 +13864,7 @@
         <v>3.1240000000000001</v>
       </c>
     </row>
-    <row r="593" spans="1:8">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A593">
         <v>116</v>
       </c>
@@ -13842,7 +13890,7 @@
         <v>2.8370000000000002</v>
       </c>
     </row>
-    <row r="594" spans="1:8">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A594">
         <v>121.8</v>
       </c>
@@ -13868,7 +13916,7 @@
         <v>2.544</v>
       </c>
     </row>
-    <row r="595" spans="1:8">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A595">
         <v>127.6</v>
       </c>
@@ -13894,7 +13942,7 @@
         <v>2.2469999999999999</v>
       </c>
     </row>
-    <row r="596" spans="1:8">
+    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A596">
         <v>133.4</v>
       </c>
@@ -13920,7 +13968,7 @@
         <v>1.944</v>
       </c>
     </row>
-    <row r="597" spans="1:8">
+    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A597">
         <v>139.30000000000001</v>
       </c>
@@ -13946,7 +13994,7 @@
         <v>1.635</v>
       </c>
     </row>
-    <row r="598" spans="1:8">
+    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A598">
         <v>145.1</v>
       </c>
@@ -13972,7 +14020,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="599" spans="1:8">
+    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>150.9</v>
       </c>
@@ -13998,7 +14046,7 @@
         <v>0.998</v>
       </c>
     </row>
-    <row r="600" spans="1:8">
+    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A600">
         <v>156.69999999999999</v>
       </c>
@@ -14024,7 +14072,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="601" spans="1:8">
+    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A601">
         <v>162.5</v>
       </c>
@@ -14050,7 +14098,7 @@
         <v>0.33700000000000002</v>
       </c>
     </row>
-    <row r="602" spans="1:8">
+    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A602">
         <v>168.3</v>
       </c>
@@ -14076,7 +14124,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="606" spans="1:8">
+    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>30</v>
       </c>
@@ -14090,7 +14138,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="608" spans="1:8">
+    <row r="608" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>26</v>
       </c>
@@ -14116,7 +14164,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="609" spans="1:8">
+    <row r="609" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>40</v>
       </c>
@@ -14136,7 +14184,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="610" spans="1:8">
+    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A610">
         <v>0</v>
       </c>
@@ -14162,7 +14210,7 @@
         <v>4.5179999999999998</v>
       </c>
     </row>
-    <row r="611" spans="1:8">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A611">
         <v>6.2</v>
       </c>
@@ -14188,7 +14236,7 @@
         <v>4.5359999999999996</v>
       </c>
     </row>
-    <row r="612" spans="1:8">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A612">
         <v>12.3</v>
       </c>
@@ -14214,7 +14262,7 @@
         <v>4.5540000000000003</v>
       </c>
     </row>
-    <row r="613" spans="1:8">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A613">
         <v>18.5</v>
       </c>
@@ -14240,7 +14288,7 @@
         <v>4.5720000000000001</v>
       </c>
     </row>
-    <row r="614" spans="1:8">
+    <row r="614" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A614">
         <v>24.7</v>
       </c>
@@ -14266,7 +14314,7 @@
         <v>4.5890000000000004</v>
       </c>
     </row>
-    <row r="615" spans="1:8">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A615">
         <v>30.8</v>
       </c>
@@ -14292,7 +14340,7 @@
         <v>4.6050000000000004</v>
       </c>
     </row>
-    <row r="616" spans="1:8">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A616">
         <v>37</v>
       </c>
@@ -14318,7 +14366,7 @@
         <v>4.6189999999999998</v>
       </c>
     </row>
-    <row r="617" spans="1:8">
+    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A617">
         <v>43.1</v>
       </c>
@@ -14344,7 +14392,7 @@
         <v>4.6310000000000002</v>
       </c>
     </row>
-    <row r="618" spans="1:8">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A618">
         <v>49.3</v>
       </c>
@@ -14370,7 +14418,7 @@
         <v>4.6399999999999997</v>
       </c>
     </row>
-    <row r="619" spans="1:8">
+    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A619">
         <v>55.5</v>
       </c>
@@ -14396,7 +14444,7 @@
         <v>4.6440000000000001</v>
       </c>
     </row>
-    <row r="620" spans="1:8">
+    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A620">
         <v>61.6</v>
       </c>
@@ -14422,7 +14470,7 @@
         <v>4.6399999999999997</v>
       </c>
     </row>
-    <row r="621" spans="1:8">
+    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A621">
         <v>67.8</v>
       </c>
@@ -14448,7 +14496,7 @@
         <v>4.6289999999999996</v>
       </c>
     </row>
-    <row r="622" spans="1:8">
+    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A622">
         <v>74</v>
       </c>
@@ -14474,7 +14522,7 @@
         <v>4.609</v>
       </c>
     </row>
-    <row r="623" spans="1:8">
+    <row r="623" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A623">
         <v>80.099999999999994</v>
       </c>
@@ -14500,7 +14548,7 @@
         <v>4.577</v>
       </c>
     </row>
-    <row r="624" spans="1:8">
+    <row r="624" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A624">
         <v>86.3</v>
       </c>
@@ -14526,7 +14574,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="625" spans="1:8">
+    <row r="625" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A625">
         <v>92.5</v>
       </c>
@@ -14552,7 +14600,7 @@
         <v>4.4610000000000003</v>
       </c>
     </row>
-    <row r="626" spans="1:8">
+    <row r="626" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A626">
         <v>98.6</v>
       </c>
@@ -14578,7 +14626,7 @@
         <v>4.3419999999999996</v>
       </c>
     </row>
-    <row r="627" spans="1:8">
+    <row r="627" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A627">
         <v>104.8</v>
       </c>
@@ -14604,7 +14652,7 @@
         <v>4.1559999999999997</v>
       </c>
     </row>
-    <row r="628" spans="1:8">
+    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A628">
         <v>111</v>
       </c>
@@ -14630,7 +14678,7 @@
         <v>3.8969999999999998</v>
       </c>
     </row>
-    <row r="629" spans="1:8">
+    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A629">
         <v>117.1</v>
       </c>
@@ -14656,7 +14704,7 @@
         <v>3.5670000000000002</v>
       </c>
     </row>
-    <row r="630" spans="1:8">
+    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A630">
         <v>123.3</v>
       </c>
@@ -14682,7 +14730,7 @@
         <v>3.2389999999999999</v>
       </c>
     </row>
-    <row r="631" spans="1:8">
+    <row r="631" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A631">
         <v>129.4</v>
       </c>
@@ -14708,7 +14756,7 @@
         <v>2.9049999999999998</v>
       </c>
     </row>
-    <row r="632" spans="1:8">
+    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A632">
         <v>135.6</v>
       </c>
@@ -14734,7 +14782,7 @@
         <v>2.5659999999999998</v>
       </c>
     </row>
-    <row r="633" spans="1:8">
+    <row r="633" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A633">
         <v>141.80000000000001</v>
       </c>
@@ -14760,7 +14808,7 @@
         <v>2.2200000000000002</v>
       </c>
     </row>
-    <row r="634" spans="1:8">
+    <row r="634" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A634">
         <v>147.9</v>
       </c>
@@ -14786,7 +14834,7 @@
         <v>1.867</v>
       </c>
     </row>
-    <row r="635" spans="1:8">
+    <row r="635" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A635">
         <v>154.1</v>
       </c>
@@ -14812,7 +14860,7 @@
         <v>1.506</v>
       </c>
     </row>
-    <row r="636" spans="1:8">
+    <row r="636" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A636">
         <v>160.30000000000001</v>
       </c>
@@ -14838,7 +14886,7 @@
         <v>1.139</v>
       </c>
     </row>
-    <row r="637" spans="1:8">
+    <row r="637" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A637">
         <v>166.4</v>
       </c>
@@ -14864,7 +14912,7 @@
         <v>0.76600000000000001</v>
       </c>
     </row>
-    <row r="638" spans="1:8">
+    <row r="638" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A638">
         <v>172.6</v>
       </c>
@@ -14890,7 +14938,7 @@
         <v>0.38700000000000001</v>
       </c>
     </row>
-    <row r="639" spans="1:8">
+    <row r="639" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A639">
         <v>178.8</v>
       </c>
@@ -14916,7 +14964,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="643" spans="1:8">
+    <row r="643" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>30</v>
       </c>
@@ -14930,7 +14978,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="645" spans="1:8">
+    <row r="645" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>26</v>
       </c>
@@ -14956,7 +15004,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="646" spans="1:8">
+    <row r="646" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>40</v>
       </c>
@@ -14976,7 +15024,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="647" spans="1:8">
+    <row r="647" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A647">
         <v>0</v>
       </c>
@@ -15002,7 +15050,7 @@
         <v>5.1680000000000001</v>
       </c>
     </row>
-    <row r="648" spans="1:8">
+    <row r="648" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A648">
         <v>6.5</v>
       </c>
@@ -15028,7 +15076,7 @@
         <v>5.1909999999999998</v>
       </c>
     </row>
-    <row r="649" spans="1:8">
+    <row r="649" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A649">
         <v>13</v>
       </c>
@@ -15054,7 +15102,7 @@
         <v>5.2149999999999999</v>
       </c>
     </row>
-    <row r="650" spans="1:8">
+    <row r="650" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A650">
         <v>19.600000000000001</v>
       </c>
@@ -15080,7 +15128,7 @@
         <v>5.2380000000000004</v>
       </c>
     </row>
-    <row r="651" spans="1:8">
+    <row r="651" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A651">
         <v>26.1</v>
       </c>
@@ -15106,7 +15154,7 @@
         <v>5.258</v>
       </c>
     </row>
-    <row r="652" spans="1:8">
+    <row r="652" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A652">
         <v>32.6</v>
       </c>
@@ -15132,7 +15180,7 @@
         <v>5.2779999999999996</v>
       </c>
     </row>
-    <row r="653" spans="1:8">
+    <row r="653" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A653">
         <v>39.1</v>
       </c>
@@ -15158,7 +15206,7 @@
         <v>5.2939999999999996</v>
       </c>
     </row>
-    <row r="654" spans="1:8">
+    <row r="654" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A654">
         <v>45.7</v>
       </c>
@@ -15184,7 +15232,7 @@
         <v>5.3070000000000004</v>
       </c>
     </row>
-    <row r="655" spans="1:8">
+    <row r="655" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A655">
         <v>52.2</v>
       </c>
@@ -15210,7 +15258,7 @@
         <v>5.3150000000000004</v>
       </c>
     </row>
-    <row r="656" spans="1:8">
+    <row r="656" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A656">
         <v>58.7</v>
       </c>
@@ -15236,7 +15284,7 @@
         <v>5.3159999999999998</v>
       </c>
     </row>
-    <row r="657" spans="1:8">
+    <row r="657" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A657">
         <v>65.2</v>
       </c>
@@ -15262,7 +15310,7 @@
         <v>5.3090000000000002</v>
       </c>
     </row>
-    <row r="658" spans="1:8">
+    <row r="658" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A658">
         <v>71.8</v>
       </c>
@@ -15288,7 +15336,7 @@
         <v>5.2910000000000004</v>
       </c>
     </row>
-    <row r="659" spans="1:8">
+    <row r="659" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A659">
         <v>78.3</v>
       </c>
@@ -15314,7 +15362,7 @@
         <v>5.2629999999999999</v>
       </c>
     </row>
-    <row r="660" spans="1:8">
+    <row r="660" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A660">
         <v>84.8</v>
       </c>
@@ -15340,7 +15388,7 @@
         <v>5.22</v>
       </c>
     </row>
-    <row r="661" spans="1:8">
+    <row r="661" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A661">
         <v>91.3</v>
       </c>
@@ -15366,7 +15414,7 @@
         <v>5.16</v>
       </c>
     </row>
-    <row r="662" spans="1:8">
+    <row r="662" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A662">
         <v>97.9</v>
       </c>
@@ -15392,7 +15440,7 @@
         <v>5.0759999999999996</v>
       </c>
     </row>
-    <row r="663" spans="1:8">
+    <row r="663" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A663">
         <v>104.4</v>
       </c>
@@ -15418,7 +15466,7 @@
         <v>4.9429999999999996</v>
       </c>
     </row>
-    <row r="664" spans="1:8">
+    <row r="664" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A664">
         <v>110.9</v>
       </c>
@@ -15444,7 +15492,7 @@
         <v>4.7279999999999998</v>
       </c>
     </row>
-    <row r="665" spans="1:8">
+    <row r="665" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A665">
         <v>117.4</v>
       </c>
@@ -15470,7 +15518,7 @@
         <v>4.4320000000000004</v>
       </c>
     </row>
-    <row r="666" spans="1:8">
+    <row r="666" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A666">
         <v>124</v>
       </c>
@@ -15496,7 +15544,7 @@
         <v>4.0540000000000003</v>
       </c>
     </row>
-    <row r="667" spans="1:8">
+    <row r="667" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A667">
         <v>130.5</v>
       </c>
@@ -15522,7 +15570,7 @@
         <v>3.68</v>
       </c>
     </row>
-    <row r="668" spans="1:8">
+    <row r="668" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A668">
         <v>137</v>
       </c>
@@ -15548,7 +15596,7 @@
         <v>3.3010000000000002</v>
       </c>
     </row>
-    <row r="669" spans="1:8">
+    <row r="669" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A669">
         <v>143.5</v>
       </c>
@@ -15574,7 +15622,7 @@
         <v>2.915</v>
       </c>
     </row>
-    <row r="670" spans="1:8">
+    <row r="670" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A670">
         <v>150.1</v>
       </c>
@@ -15600,7 +15648,7 @@
         <v>2.5219999999999998</v>
       </c>
     </row>
-    <row r="671" spans="1:8">
+    <row r="671" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A671">
         <v>156.6</v>
       </c>
@@ -15626,7 +15674,7 @@
         <v>2.1219999999999999</v>
       </c>
     </row>
-    <row r="672" spans="1:8">
+    <row r="672" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A672">
         <v>163.1</v>
       </c>
@@ -15652,7 +15700,7 @@
         <v>1.714</v>
       </c>
     </row>
-    <row r="673" spans="1:8">
+    <row r="673" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A673">
         <v>169.6</v>
       </c>
@@ -15678,7 +15726,7 @@
         <v>1.2949999999999999</v>
       </c>
     </row>
-    <row r="674" spans="1:8">
+    <row r="674" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A674">
         <v>176.2</v>
       </c>
@@ -15704,7 +15752,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="675" spans="1:8">
+    <row r="675" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A675">
         <v>182.7</v>
       </c>
@@ -15730,7 +15778,7 @@
         <v>0.439</v>
       </c>
     </row>
-    <row r="676" spans="1:8">
+    <row r="676" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A676">
         <v>189.2</v>
       </c>
@@ -15756,7 +15804,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="680" spans="1:8">
+    <row r="680" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>30</v>
       </c>
@@ -15770,7 +15818,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="682" spans="1:8">
+    <row r="682" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>26</v>
       </c>
@@ -15796,7 +15844,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="683" spans="1:8">
+    <row r="683" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>40</v>
       </c>
@@ -15816,7 +15864,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="684" spans="1:8">
+    <row r="684" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A684">
         <v>0</v>
       </c>
@@ -15842,7 +15890,7 @@
         <v>5.8760000000000003</v>
       </c>
     </row>
-    <row r="685" spans="1:8">
+    <row r="685" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A685">
         <v>6.9</v>
       </c>
@@ -15868,7 +15916,7 @@
         <v>5.9059999999999997</v>
       </c>
     </row>
-    <row r="686" spans="1:8">
+    <row r="686" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A686">
         <v>13.8</v>
       </c>
@@ -15894,7 +15942,7 @@
         <v>5.9349999999999996</v>
       </c>
     </row>
-    <row r="687" spans="1:8">
+    <row r="687" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A687">
         <v>20.6</v>
       </c>
@@ -15920,7 +15968,7 @@
         <v>5.9630000000000001</v>
       </c>
     </row>
-    <row r="688" spans="1:8">
+    <row r="688" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A688">
         <v>27.5</v>
       </c>
@@ -15946,7 +15994,7 @@
         <v>5.9880000000000004</v>
       </c>
     </row>
-    <row r="689" spans="1:8">
+    <row r="689" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A689">
         <v>34.4</v>
       </c>
@@ -15972,7 +16020,7 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="690" spans="1:8">
+    <row r="690" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A690">
         <v>41.3</v>
       </c>
@@ -15998,7 +16046,7 @@
         <v>6.0289999999999999</v>
       </c>
     </row>
-    <row r="691" spans="1:8">
+    <row r="691" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A691">
         <v>48.2</v>
       </c>
@@ -16024,7 +16072,7 @@
         <v>6.0419999999999998</v>
       </c>
     </row>
-    <row r="692" spans="1:8">
+    <row r="692" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A692">
         <v>55.1</v>
       </c>
@@ -16050,7 +16098,7 @@
         <v>6.0490000000000004</v>
       </c>
     </row>
-    <row r="693" spans="1:8">
+    <row r="693" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A693">
         <v>61.9</v>
       </c>
@@ -16076,7 +16124,7 @@
         <v>6.0490000000000004</v>
       </c>
     </row>
-    <row r="694" spans="1:8">
+    <row r="694" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A694">
         <v>68.8</v>
       </c>
@@ -16102,7 +16150,7 @@
         <v>6.0369999999999999</v>
       </c>
     </row>
-    <row r="695" spans="1:8">
+    <row r="695" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A695">
         <v>75.7</v>
       </c>
@@ -16128,7 +16176,7 @@
         <v>6.0119999999999996</v>
       </c>
     </row>
-    <row r="696" spans="1:8">
+    <row r="696" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A696">
         <v>82.6</v>
       </c>
@@ -16154,7 +16202,7 @@
         <v>5.9729999999999999</v>
       </c>
     </row>
-    <row r="697" spans="1:8">
+    <row r="697" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A697">
         <v>89.5</v>
       </c>
@@ -16180,7 +16228,7 @@
         <v>5.9180000000000001</v>
       </c>
     </row>
-    <row r="698" spans="1:8">
+    <row r="698" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A698">
         <v>96.3</v>
       </c>
@@ -16206,7 +16254,7 @@
         <v>5.843</v>
       </c>
     </row>
-    <row r="699" spans="1:8">
+    <row r="699" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A699">
         <v>103.2</v>
       </c>
@@ -16232,7 +16280,7 @@
         <v>5.742</v>
       </c>
     </row>
-    <row r="700" spans="1:8">
+    <row r="700" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A700">
         <v>110.1</v>
       </c>
@@ -16258,7 +16306,7 @@
         <v>5.5960000000000001</v>
       </c>
     </row>
-    <row r="701" spans="1:8">
+    <row r="701" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A701">
         <v>117</v>
       </c>
@@ -16284,7 +16332,7 @@
         <v>5.3550000000000004</v>
       </c>
     </row>
-    <row r="702" spans="1:8">
+    <row r="702" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A702">
         <v>123.9</v>
       </c>
@@ -16310,7 +16358,7 @@
         <v>5.0190000000000001</v>
       </c>
     </row>
-    <row r="703" spans="1:8">
+    <row r="703" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A703">
         <v>130.69999999999999</v>
       </c>
@@ -16336,7 +16384,7 @@
         <v>4.59</v>
       </c>
     </row>
-    <row r="704" spans="1:8">
+    <row r="704" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A704">
         <v>137.6</v>
       </c>
@@ -16362,7 +16410,7 @@
         <v>4.1660000000000004</v>
       </c>
     </row>
-    <row r="705" spans="1:8">
+    <row r="705" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A705">
         <v>144.5</v>
       </c>
@@ -16388,7 +16436,7 @@
         <v>3.7389999999999999</v>
       </c>
     </row>
-    <row r="706" spans="1:8">
+    <row r="706" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A706">
         <v>151.4</v>
       </c>
@@ -16414,7 +16462,7 @@
         <v>3.3039999999999998</v>
       </c>
     </row>
-    <row r="707" spans="1:8">
+    <row r="707" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A707">
         <v>158.30000000000001</v>
       </c>
@@ -16440,7 +16488,7 @@
         <v>2.86</v>
       </c>
     </row>
-    <row r="708" spans="1:8">
+    <row r="708" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A708">
         <v>165.2</v>
       </c>
@@ -16466,7 +16514,7 @@
         <v>2.4079999999999999</v>
       </c>
     </row>
-    <row r="709" spans="1:8">
+    <row r="709" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A709">
         <v>172</v>
       </c>
@@ -16492,7 +16540,7 @@
         <v>1.948</v>
       </c>
     </row>
-    <row r="710" spans="1:8">
+    <row r="710" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A710">
         <v>178.9</v>
       </c>
@@ -16518,7 +16566,7 @@
         <v>1.4750000000000001</v>
       </c>
     </row>
-    <row r="711" spans="1:8">
+    <row r="711" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A711">
         <v>185.8</v>
       </c>
@@ -16544,7 +16592,7 @@
         <v>0.99199999999999999</v>
       </c>
     </row>
-    <row r="712" spans="1:8">
+    <row r="712" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A712">
         <v>192.7</v>
       </c>
@@ -16570,7 +16618,7 @@
         <v>0.503</v>
       </c>
     </row>
-    <row r="713" spans="1:8">
+    <row r="713" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A713">
         <v>199.6</v>
       </c>
@@ -16596,7 +16644,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="717" spans="1:8">
+    <row r="717" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>30</v>
       </c>
@@ -16610,7 +16658,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="719" spans="1:8">
+    <row r="719" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>26</v>
       </c>
@@ -16636,7 +16684,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="720" spans="1:8">
+    <row r="720" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>40</v>
       </c>
@@ -16656,7 +16704,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="721" spans="1:8">
+    <row r="721" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A721">
         <v>0</v>
       </c>
@@ -16682,7 +16730,7 @@
         <v>6.64</v>
       </c>
     </row>
-    <row r="722" spans="1:8">
+    <row r="722" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A722">
         <v>7.2</v>
       </c>
@@ -16708,7 +16756,7 @@
         <v>6.6769999999999996</v>
       </c>
     </row>
-    <row r="723" spans="1:8">
+    <row r="723" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A723">
         <v>14.5</v>
       </c>
@@ -16734,7 +16782,7 @@
         <v>6.7130000000000001</v>
       </c>
     </row>
-    <row r="724" spans="1:8">
+    <row r="724" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A724">
         <v>21.7</v>
       </c>
@@ -16760,7 +16808,7 @@
         <v>6.7480000000000002</v>
       </c>
     </row>
-    <row r="725" spans="1:8">
+    <row r="725" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A725">
         <v>29</v>
       </c>
@@ -16786,7 +16834,7 @@
         <v>6.7789999999999999</v>
       </c>
     </row>
-    <row r="726" spans="1:8">
+    <row r="726" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A726">
         <v>36.200000000000003</v>
       </c>
@@ -16812,7 +16860,7 @@
         <v>6.8049999999999997</v>
       </c>
     </row>
-    <row r="727" spans="1:8">
+    <row r="727" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A727">
         <v>43.4</v>
       </c>
@@ -16838,7 +16886,7 @@
         <v>6.8259999999999996</v>
       </c>
     </row>
-    <row r="728" spans="1:8">
+    <row r="728" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A728">
         <v>50.7</v>
       </c>
@@ -16864,7 +16912,7 @@
         <v>6.8410000000000002</v>
       </c>
     </row>
-    <row r="729" spans="1:8">
+    <row r="729" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A729">
         <v>57.9</v>
       </c>
@@ -16890,7 +16938,7 @@
         <v>6.8470000000000004</v>
       </c>
     </row>
-    <row r="730" spans="1:8">
+    <row r="730" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A730">
         <v>65.2</v>
       </c>
@@ -16916,7 +16964,7 @@
         <v>6.843</v>
       </c>
     </row>
-    <row r="731" spans="1:8">
+    <row r="731" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A731">
         <v>72.400000000000006</v>
       </c>
@@ -16942,7 +16990,7 @@
         <v>6.827</v>
       </c>
     </row>
-    <row r="732" spans="1:8">
+    <row r="732" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A732">
         <v>79.599999999999994</v>
       </c>
@@ -16968,7 +17016,7 @@
         <v>6.7949999999999999</v>
       </c>
     </row>
-    <row r="733" spans="1:8">
+    <row r="733" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A733">
         <v>86.9</v>
       </c>
@@ -16994,7 +17042,7 @@
         <v>6.7460000000000004</v>
       </c>
     </row>
-    <row r="734" spans="1:8">
+    <row r="734" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A734">
         <v>94.1</v>
       </c>
@@ -17020,7 +17068,7 @@
         <v>6.6790000000000003</v>
       </c>
     </row>
-    <row r="735" spans="1:8">
+    <row r="735" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A735">
         <v>101.4</v>
       </c>
@@ -17046,7 +17094,7 @@
         <v>6.5860000000000003</v>
       </c>
     </row>
-    <row r="736" spans="1:8">
+    <row r="736" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A736">
         <v>108.6</v>
       </c>
@@ -17072,7 +17120,7 @@
         <v>6.4660000000000002</v>
       </c>
     </row>
-    <row r="737" spans="1:8">
+    <row r="737" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A737">
         <v>115.8</v>
       </c>
@@ -17098,7 +17146,7 @@
         <v>6.3019999999999996</v>
       </c>
     </row>
-    <row r="738" spans="1:8">
+    <row r="738" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A738">
         <v>123.1</v>
       </c>
@@ -17124,7 +17172,7 @@
         <v>6.0419999999999998</v>
       </c>
     </row>
-    <row r="739" spans="1:8">
+    <row r="739" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A739">
         <v>130.30000000000001</v>
       </c>
@@ -17150,7 +17198,7 @@
         <v>5.6609999999999996</v>
       </c>
     </row>
-    <row r="740" spans="1:8">
+    <row r="740" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A740">
         <v>137.6</v>
       </c>
@@ -17176,7 +17224,7 @@
         <v>5.1769999999999996</v>
       </c>
     </row>
-    <row r="741" spans="1:8">
+    <row r="741" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A741">
         <v>144.80000000000001</v>
       </c>
@@ -17202,7 +17250,7 @@
         <v>4.6970000000000001</v>
       </c>
     </row>
-    <row r="742" spans="1:8">
+    <row r="742" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A742">
         <v>152</v>
       </c>
@@ -17228,7 +17276,7 @@
         <v>4.218</v>
       </c>
     </row>
-    <row r="743" spans="1:8">
+    <row r="743" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A743">
         <v>159.30000000000001</v>
       </c>
@@ -17254,7 +17302,7 @@
         <v>3.7290000000000001</v>
       </c>
     </row>
-    <row r="744" spans="1:8">
+    <row r="744" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A744">
         <v>166.5</v>
       </c>
@@ -17280,7 +17328,7 @@
         <v>3.23</v>
       </c>
     </row>
-    <row r="745" spans="1:8">
+    <row r="745" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A745">
         <v>173.7</v>
       </c>
@@ -17306,7 +17354,7 @@
         <v>2.7240000000000002</v>
       </c>
     </row>
-    <row r="746" spans="1:8">
+    <row r="746" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A746">
         <v>181</v>
       </c>
@@ -17332,7 +17380,7 @@
         <v>2.2040000000000002</v>
       </c>
     </row>
-    <row r="747" spans="1:8">
+    <row r="747" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A747">
         <v>188.2</v>
       </c>
@@ -17358,7 +17406,7 @@
         <v>1.673</v>
       </c>
     </row>
-    <row r="748" spans="1:8">
+    <row r="748" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A748">
         <v>195.5</v>
       </c>
@@ -17384,7 +17432,7 @@
         <v>1.1319999999999999</v>
       </c>
     </row>
-    <row r="749" spans="1:8">
+    <row r="749" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A749">
         <v>202.7</v>
       </c>
@@ -17410,7 +17458,7 @@
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="750" spans="1:8">
+    <row r="750" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A750">
         <v>209.9</v>
       </c>
@@ -17436,7 +17484,7 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="754" spans="1:8">
+    <row r="754" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>30</v>
       </c>
@@ -17450,7 +17498,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="756" spans="1:8">
+    <row r="756" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>26</v>
       </c>
@@ -17476,7 +17524,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="757" spans="1:8">
+    <row r="757" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>40</v>
       </c>
@@ -17496,7 +17544,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="758" spans="1:8">
+    <row r="758" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A758">
         <v>0</v>
       </c>
@@ -17522,7 +17570,7 @@
         <v>7.4720000000000004</v>
       </c>
     </row>
-    <row r="759" spans="1:8">
+    <row r="759" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A759">
         <v>7.6</v>
       </c>
@@ -17548,7 +17596,7 @@
         <v>7.5179999999999998</v>
       </c>
     </row>
-    <row r="760" spans="1:8">
+    <row r="760" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A760">
         <v>15.2</v>
       </c>
@@ -17574,7 +17622,7 @@
         <v>7.5640000000000001</v>
       </c>
     </row>
-    <row r="761" spans="1:8">
+    <row r="761" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A761">
         <v>22.8</v>
       </c>
@@ -17600,7 +17648,7 @@
         <v>7.6059999999999999</v>
       </c>
     </row>
-    <row r="762" spans="1:8">
+    <row r="762" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A762">
         <v>30.4</v>
       </c>
@@ -17626,7 +17674,7 @@
         <v>7.6429999999999998</v>
       </c>
     </row>
-    <row r="763" spans="1:8">
+    <row r="763" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A763">
         <v>37.9</v>
       </c>
@@ -17652,7 +17700,7 @@
         <v>7.6740000000000004</v>
       </c>
     </row>
-    <row r="764" spans="1:8">
+    <row r="764" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A764">
         <v>45.5</v>
       </c>
@@ -17678,7 +17726,7 @@
         <v>7.6989999999999998</v>
       </c>
     </row>
-    <row r="765" spans="1:8">
+    <row r="765" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A765">
         <v>53.1</v>
       </c>
@@ -17704,7 +17752,7 @@
         <v>7.7149999999999999</v>
       </c>
     </row>
-    <row r="766" spans="1:8">
+    <row r="766" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A766">
         <v>60.7</v>
       </c>
@@ -17730,7 +17778,7 @@
         <v>7.72</v>
       </c>
     </row>
-    <row r="767" spans="1:8">
+    <row r="767" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A767">
         <v>68.3</v>
       </c>
@@ -17756,7 +17804,7 @@
         <v>7.7140000000000004</v>
       </c>
     </row>
-    <row r="768" spans="1:8">
+    <row r="768" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A768">
         <v>75.900000000000006</v>
       </c>
@@ -17782,7 +17830,7 @@
         <v>7.6929999999999996</v>
       </c>
     </row>
-    <row r="769" spans="1:8">
+    <row r="769" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A769">
         <v>83.5</v>
       </c>
@@ -17808,7 +17856,7 @@
         <v>7.6559999999999997</v>
       </c>
     </row>
-    <row r="770" spans="1:8">
+    <row r="770" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A770">
         <v>91.1</v>
       </c>
@@ -17834,7 +17882,7 @@
         <v>7.5960000000000001</v>
       </c>
     </row>
-    <row r="771" spans="1:8">
+    <row r="771" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A771">
         <v>98.7</v>
       </c>
@@ -17860,7 +17908,7 @@
         <v>7.5140000000000002</v>
       </c>
     </row>
-    <row r="772" spans="1:8">
+    <row r="772" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A772">
         <v>106.2</v>
       </c>
@@ -17886,7 +17934,7 @@
         <v>7.4050000000000002</v>
       </c>
     </row>
-    <row r="773" spans="1:8">
+    <row r="773" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A773">
         <v>113.8</v>
       </c>
@@ -17912,7 +17960,7 @@
         <v>7.266</v>
       </c>
     </row>
-    <row r="774" spans="1:8">
+    <row r="774" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A774">
         <v>121.4</v>
       </c>
@@ -17938,7 +17986,7 @@
         <v>7.0839999999999996</v>
       </c>
     </row>
-    <row r="775" spans="1:8">
+    <row r="775" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A775">
         <v>129</v>
       </c>
@@ -17964,7 +18012,7 @@
         <v>6.8150000000000004</v>
       </c>
     </row>
-    <row r="776" spans="1:8">
+    <row r="776" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A776">
         <v>136.6</v>
       </c>
@@ -17990,7 +18038,7 @@
         <v>6.3890000000000002</v>
       </c>
     </row>
-    <row r="777" spans="1:8">
+    <row r="777" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A777">
         <v>144.19999999999999</v>
       </c>
@@ -18016,7 +18064,7 @@
         <v>5.843</v>
       </c>
     </row>
-    <row r="778" spans="1:8">
+    <row r="778" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A778">
         <v>151.80000000000001</v>
       </c>
@@ -18042,7 +18090,7 @@
         <v>5.2969999999999997</v>
       </c>
     </row>
-    <row r="779" spans="1:8">
+    <row r="779" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A779">
         <v>159.4</v>
       </c>
@@ -18068,7 +18116,7 @@
         <v>4.7610000000000001</v>
       </c>
     </row>
-    <row r="780" spans="1:8">
+    <row r="780" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A780">
         <v>167</v>
       </c>
@@ -18094,7 +18142,7 @@
         <v>4.2140000000000004</v>
       </c>
     </row>
-    <row r="781" spans="1:8">
+    <row r="781" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A781">
         <v>174.5</v>
       </c>
@@ -18120,7 +18168,7 @@
         <v>3.6549999999999998</v>
       </c>
     </row>
-    <row r="782" spans="1:8">
+    <row r="782" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A782">
         <v>182.1</v>
       </c>
@@ -18146,7 +18194,7 @@
         <v>3.085</v>
       </c>
     </row>
-    <row r="783" spans="1:8">
+    <row r="783" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A783">
         <v>189.7</v>
       </c>
@@ -18172,7 +18220,7 @@
         <v>2.4990000000000001</v>
       </c>
     </row>
-    <row r="784" spans="1:8">
+    <row r="784" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A784">
         <v>197.3</v>
       </c>
@@ -18198,7 +18246,7 @@
         <v>1.9019999999999999</v>
       </c>
     </row>
-    <row r="785" spans="1:8">
+    <row r="785" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A785">
         <v>204.9</v>
       </c>
@@ -18224,7 +18272,7 @@
         <v>1.286</v>
       </c>
     </row>
-    <row r="786" spans="1:8">
+    <row r="786" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A786">
         <v>212.5</v>
       </c>
@@ -18250,7 +18298,7 @@
         <v>0.65800000000000003</v>
       </c>
     </row>
-    <row r="787" spans="1:8">
+    <row r="787" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A787">
         <v>220.1</v>
       </c>
@@ -18276,7 +18324,7 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="791" spans="1:8">
+    <row r="791" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
         <v>30</v>
       </c>
@@ -18290,7 +18338,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="793" spans="1:8">
+    <row r="793" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
         <v>26</v>
       </c>
@@ -18316,7 +18364,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="794" spans="1:8">
+    <row r="794" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
         <v>40</v>
       </c>
@@ -18336,7 +18384,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="795" spans="1:8">
+    <row r="795" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A795">
         <v>0</v>
       </c>
@@ -18362,7 +18410,7 @@
         <v>8.3949999999999996</v>
       </c>
     </row>
-    <row r="796" spans="1:8">
+    <row r="796" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A796">
         <v>7.9</v>
       </c>
@@ -18388,7 +18436,7 @@
         <v>8.4510000000000005</v>
       </c>
     </row>
-    <row r="797" spans="1:8">
+    <row r="797" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A797">
         <v>15.9</v>
       </c>
@@ -18414,7 +18462,7 @@
         <v>8.5050000000000008</v>
       </c>
     </row>
-    <row r="798" spans="1:8">
+    <row r="798" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A798">
         <v>23.8</v>
       </c>
@@ -18440,7 +18488,7 @@
         <v>8.5549999999999997</v>
       </c>
     </row>
-    <row r="799" spans="1:8">
+    <row r="799" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A799">
         <v>31.8</v>
       </c>
@@ -18466,7 +18514,7 @@
         <v>8.6020000000000003</v>
       </c>
     </row>
-    <row r="800" spans="1:8">
+    <row r="800" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A800">
         <v>39.700000000000003</v>
       </c>
@@ -18492,7 +18540,7 @@
         <v>8.6430000000000007</v>
       </c>
     </row>
-    <row r="801" spans="1:8">
+    <row r="801" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A801">
         <v>47.7</v>
       </c>
@@ -18518,7 +18566,7 @@
         <v>8.67</v>
       </c>
     </row>
-    <row r="802" spans="1:8">
+    <row r="802" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A802">
         <v>55.6</v>
       </c>
@@ -18544,7 +18592,7 @@
         <v>8.6890000000000001</v>
       </c>
     </row>
-    <row r="803" spans="1:8">
+    <row r="803" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A803">
         <v>63.6</v>
       </c>
@@ -18570,7 +18618,7 @@
         <v>8.6950000000000003</v>
       </c>
     </row>
-    <row r="804" spans="1:8">
+    <row r="804" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A804">
         <v>71.5</v>
       </c>
@@ -18596,7 +18644,7 @@
         <v>8.6869999999999994</v>
       </c>
     </row>
-    <row r="805" spans="1:8">
+    <row r="805" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A805">
         <v>79.400000000000006</v>
       </c>
@@ -18622,7 +18670,7 @@
         <v>8.6590000000000007</v>
       </c>
     </row>
-    <row r="806" spans="1:8">
+    <row r="806" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A806">
         <v>87.4</v>
       </c>
@@ -18648,7 +18696,7 @@
         <v>8.6140000000000008</v>
       </c>
     </row>
-    <row r="807" spans="1:8">
+    <row r="807" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A807">
         <v>95.3</v>
       </c>
@@ -18674,7 +18722,7 @@
         <v>8.5489999999999995</v>
       </c>
     </row>
-    <row r="808" spans="1:8">
+    <row r="808" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A808">
         <v>103.3</v>
       </c>
@@ -18700,7 +18748,7 @@
         <v>8.4559999999999995</v>
       </c>
     </row>
-    <row r="809" spans="1:8">
+    <row r="809" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A809">
         <v>111.2</v>
       </c>
@@ -18726,7 +18774,7 @@
         <v>8.3339999999999996</v>
       </c>
     </row>
-    <row r="810" spans="1:8">
+    <row r="810" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A810">
         <v>119.2</v>
       </c>
@@ -18752,7 +18800,7 @@
         <v>8.1750000000000007</v>
       </c>
     </row>
-    <row r="811" spans="1:8">
+    <row r="811" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A811">
         <v>127.1</v>
       </c>
@@ -18778,7 +18826,7 @@
         <v>7.9720000000000004</v>
       </c>
     </row>
-    <row r="812" spans="1:8">
+    <row r="812" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A812">
         <v>135</v>
       </c>
@@ -18804,7 +18852,7 @@
         <v>7.7080000000000002</v>
       </c>
     </row>
-    <row r="813" spans="1:8">
+    <row r="813" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A813">
         <v>143</v>
       </c>
@@ -18830,7 +18878,7 @@
         <v>7.2359999999999998</v>
       </c>
     </row>
-    <row r="814" spans="1:8">
+    <row r="814" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A814">
         <v>150.9</v>
       </c>
@@ -18856,7 +18904,7 @@
         <v>6.6040000000000001</v>
       </c>
     </row>
-    <row r="815" spans="1:8">
+    <row r="815" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A815">
         <v>158.9</v>
       </c>
@@ -18882,7 +18930,7 @@
         <v>5.968</v>
       </c>
     </row>
-    <row r="816" spans="1:8">
+    <row r="816" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A816">
         <v>166.8</v>
       </c>
@@ -18908,7 +18956,7 @@
         <v>5.3630000000000004</v>
       </c>
     </row>
-    <row r="817" spans="1:8">
+    <row r="817" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A817">
         <v>174.8</v>
       </c>
@@ -18934,7 +18982,7 @@
         <v>4.7489999999999997</v>
       </c>
     </row>
-    <row r="818" spans="1:8">
+    <row r="818" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A818">
         <v>182.7</v>
       </c>
@@ -18960,7 +19008,7 @@
         <v>4.12</v>
       </c>
     </row>
-    <row r="819" spans="1:8">
+    <row r="819" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A819">
         <v>190.7</v>
       </c>
@@ -18986,7 +19034,7 @@
         <v>3.48</v>
       </c>
     </row>
-    <row r="820" spans="1:8">
+    <row r="820" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A820">
         <v>198.6</v>
       </c>
@@ -19012,7 +19060,7 @@
         <v>2.823</v>
       </c>
     </row>
-    <row r="821" spans="1:8">
+    <row r="821" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A821">
         <v>206.5</v>
       </c>
@@ -19038,7 +19086,7 @@
         <v>2.145</v>
       </c>
     </row>
-    <row r="822" spans="1:8">
+    <row r="822" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A822">
         <v>214.5</v>
       </c>
@@ -19064,7 +19112,7 @@
         <v>1.458</v>
       </c>
     </row>
-    <row r="823" spans="1:8">
+    <row r="823" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A823">
         <v>222.4</v>
       </c>
@@ -19090,7 +19138,7 @@
         <v>0.752</v>
       </c>
     </row>
-    <row r="824" spans="1:8">
+    <row r="824" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A824">
         <v>230.4</v>
       </c>
@@ -19116,7 +19164,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="828" spans="1:8">
+    <row r="828" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
         <v>30</v>
       </c>
@@ -19130,7 +19178,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="830" spans="1:8">
+    <row r="830" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
         <v>26</v>
       </c>
@@ -19156,7 +19204,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="831" spans="1:8">
+    <row r="831" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
         <v>40</v>
       </c>
@@ -19176,7 +19224,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="832" spans="1:8">
+    <row r="832" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A832">
         <v>0</v>
       </c>
@@ -19202,7 +19250,7 @@
         <v>9.6020000000000003</v>
       </c>
     </row>
-    <row r="833" spans="1:8">
+    <row r="833" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A833">
         <v>8.3000000000000007</v>
       </c>
@@ -19228,7 +19276,7 @@
         <v>9.6750000000000007</v>
       </c>
     </row>
-    <row r="834" spans="1:8">
+    <row r="834" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A834">
         <v>16.600000000000001</v>
       </c>
@@ -19254,7 +19302,7 @@
         <v>9.7449999999999992</v>
       </c>
     </row>
-    <row r="835" spans="1:8">
+    <row r="835" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A835">
         <v>24.8</v>
       </c>
@@ -19280,7 +19328,7 @@
         <v>9.8109999999999999</v>
       </c>
     </row>
-    <row r="836" spans="1:8">
+    <row r="836" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A836">
         <v>33.1</v>
       </c>
@@ -19306,7 +19354,7 @@
         <v>9.8729999999999993</v>
       </c>
     </row>
-    <row r="837" spans="1:8">
+    <row r="837" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A837">
         <v>41.4</v>
       </c>
@@ -19332,7 +19380,7 @@
         <v>9.9350000000000005</v>
       </c>
     </row>
-    <row r="838" spans="1:8">
+    <row r="838" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A838">
         <v>49.7</v>
       </c>
@@ -19358,7 +19406,7 @@
         <v>9.9719999999999995</v>
       </c>
     </row>
-    <row r="839" spans="1:8">
+    <row r="839" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A839">
         <v>57.9</v>
       </c>
@@ -19384,7 +19432,7 @@
         <v>10.003</v>
       </c>
     </row>
-    <row r="840" spans="1:8">
+    <row r="840" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A840">
         <v>66.2</v>
       </c>
@@ -19410,7 +19458,7 @@
         <v>10.042999999999999</v>
       </c>
     </row>
-    <row r="841" spans="1:8">
+    <row r="841" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A841">
         <v>74.5</v>
       </c>
@@ -19436,7 +19484,7 @@
         <v>10.032</v>
       </c>
     </row>
-    <row r="842" spans="1:8">
+    <row r="842" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A842">
         <v>82.8</v>
       </c>
@@ -19462,7 +19510,7 @@
         <v>9.99</v>
       </c>
     </row>
-    <row r="843" spans="1:8">
+    <row r="843" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A843">
         <v>91</v>
       </c>
@@ -19488,7 +19536,7 @@
         <v>9.9120000000000008</v>
       </c>
     </row>
-    <row r="844" spans="1:8">
+    <row r="844" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A844">
         <v>99.3</v>
       </c>
@@ -19514,7 +19562,7 @@
         <v>9.8049999999999997</v>
       </c>
     </row>
-    <row r="845" spans="1:8">
+    <row r="845" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A845">
         <v>107.6</v>
       </c>
@@ -19540,7 +19588,7 @@
         <v>9.6709999999999994</v>
       </c>
     </row>
-    <row r="846" spans="1:8">
+    <row r="846" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A846">
         <v>115.9</v>
       </c>
@@ -19566,7 +19614,7 @@
         <v>9.51</v>
       </c>
     </row>
-    <row r="847" spans="1:8">
+    <row r="847" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A847">
         <v>124.1</v>
       </c>
@@ -19592,7 +19640,7 @@
         <v>9.3260000000000005</v>
       </c>
     </row>
-    <row r="848" spans="1:8">
+    <row r="848" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A848">
         <v>132.4</v>
       </c>
@@ -19618,7 +19666,7 @@
         <v>9.1270000000000007</v>
       </c>
     </row>
-    <row r="849" spans="1:8">
+    <row r="849" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A849">
         <v>140.69999999999999</v>
       </c>
@@ -19644,63 +19692,59 @@
         <v>8.8450000000000006</v>
       </c>
     </row>
-    <row r="850" spans="1:8">
+    <row r="850" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A850">
         <v>149</v>
       </c>
-      <c r="B850" t="s">
-        <v>46</v>
-      </c>
-      <c r="C850" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D850" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E850" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F850" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G850" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="851" spans="1:8">
+      <c r="B850">
+        <v>0.85</v>
+      </c>
+      <c r="C850">
+        <v>0</v>
+      </c>
+      <c r="D850">
+        <v>0</v>
+      </c>
+      <c r="E850">
+        <v>0</v>
+      </c>
+      <c r="F850">
+        <v>0</v>
+      </c>
+      <c r="G850">
+        <v>0</v>
+      </c>
+      <c r="H850">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="851" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A851">
         <v>157.19999999999999</v>
       </c>
-      <c r="B851" t="s">
-        <v>47</v>
-      </c>
-      <c r="C851" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D851" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E851" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F851" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G851" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="852" spans="1:8">
+      <c r="B851">
+        <v>0.9</v>
+      </c>
+      <c r="C851">
+        <v>0</v>
+      </c>
+      <c r="D851">
+        <v>0</v>
+      </c>
+      <c r="E851">
+        <v>0</v>
+      </c>
+      <c r="F851">
+        <v>0</v>
+      </c>
+      <c r="G851">
+        <v>0</v>
+      </c>
+      <c r="H851">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="852" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A852">
         <v>165.5</v>
       </c>
@@ -19726,7 +19770,7 @@
         <v>6.8869999999999996</v>
       </c>
     </row>
-    <row r="853" spans="1:8">
+    <row r="853" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A853">
         <v>173.8</v>
       </c>
@@ -19752,7 +19796,7 @@
         <v>6.16</v>
       </c>
     </row>
-    <row r="854" spans="1:8">
+    <row r="854" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A854">
         <v>182.1</v>
       </c>
@@ -19778,7 +19822,7 @@
         <v>5.4390000000000001</v>
       </c>
     </row>
-    <row r="855" spans="1:8">
+    <row r="855" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A855">
         <v>190.4</v>
       </c>
@@ -19804,7 +19848,7 @@
         <v>4.7119999999999997</v>
       </c>
     </row>
-    <row r="856" spans="1:8">
+    <row r="856" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A856">
         <v>198.6</v>
       </c>
@@ -19830,7 +19874,7 @@
         <v>3.99</v>
       </c>
     </row>
-    <row r="857" spans="1:8">
+    <row r="857" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A857">
         <v>206.9</v>
       </c>
@@ -19856,7 +19900,7 @@
         <v>3.2440000000000002</v>
       </c>
     </row>
-    <row r="858" spans="1:8">
+    <row r="858" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A858">
         <v>215.2</v>
       </c>
@@ -19882,7 +19926,7 @@
         <v>2.476</v>
       </c>
     </row>
-    <row r="859" spans="1:8">
+    <row r="859" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A859">
         <v>223.5</v>
       </c>
@@ -19908,7 +19952,7 @@
         <v>1.6830000000000001</v>
       </c>
     </row>
-    <row r="860" spans="1:8">
+    <row r="860" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A860">
         <v>231.7</v>
       </c>
@@ -19934,7 +19978,7 @@
         <v>0.86199999999999999</v>
       </c>
     </row>
-    <row r="861" spans="1:8">
+    <row r="861" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A861">
         <v>240</v>
       </c>
@@ -19960,7 +20004,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="865" spans="1:8">
+    <row r="865" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
         <v>30</v>
       </c>
@@ -19974,7 +20018,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="867" spans="1:8">
+    <row r="867" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
         <v>26</v>
       </c>
@@ -20000,7 +20044,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="868" spans="1:8">
+    <row r="868" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
         <v>40</v>
       </c>
@@ -20020,7 +20064,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="869" spans="1:8">
+    <row r="869" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A869">
         <v>0</v>
       </c>
@@ -20046,7 +20090,7 @@
         <v>12.311</v>
       </c>
     </row>
-    <row r="870" spans="1:8">
+    <row r="870" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A870">
         <v>9</v>
       </c>
@@ -20072,7 +20116,7 @@
         <v>12.409000000000001</v>
       </c>
     </row>
-    <row r="871" spans="1:8">
+    <row r="871" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A871">
         <v>17.899999999999999</v>
       </c>
@@ -20098,7 +20142,7 @@
         <v>12.522</v>
       </c>
     </row>
-    <row r="872" spans="1:8">
+    <row r="872" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A872">
         <v>26.9</v>
       </c>
@@ -20124,7 +20168,7 @@
         <v>12.62</v>
       </c>
     </row>
-    <row r="873" spans="1:8">
+    <row r="873" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A873">
         <v>35.799999999999997</v>
       </c>
@@ -20150,7 +20194,7 @@
         <v>12.762</v>
       </c>
     </row>
-    <row r="874" spans="1:8">
+    <row r="874" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A874">
         <v>44.8</v>
       </c>
@@ -20176,7 +20220,7 @@
         <v>12.856</v>
       </c>
     </row>
-    <row r="875" spans="1:8">
+    <row r="875" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A875">
         <v>53.7</v>
       </c>
@@ -20202,7 +20246,7 @@
         <v>12.923999999999999</v>
       </c>
     </row>
-    <row r="876" spans="1:8">
+    <row r="876" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A876">
         <v>62.7</v>
       </c>
@@ -20228,7 +20272,7 @@
         <v>12.95</v>
       </c>
     </row>
-    <row r="877" spans="1:8">
+    <row r="877" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A877">
         <v>71.599999999999994</v>
       </c>
@@ -20254,7 +20298,7 @@
         <v>12.933999999999999</v>
       </c>
     </row>
-    <row r="878" spans="1:8">
+    <row r="878" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A878">
         <v>80.599999999999994</v>
       </c>
@@ -20280,7 +20324,7 @@
         <v>12.885999999999999</v>
       </c>
     </row>
-    <row r="879" spans="1:8">
+    <row r="879" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A879">
         <v>89.5</v>
       </c>
@@ -20306,7 +20350,7 @@
         <v>12.802</v>
       </c>
     </row>
-    <row r="880" spans="1:8">
+    <row r="880" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A880">
         <v>98.5</v>
       </c>
@@ -20332,7 +20376,7 @@
         <v>12.675000000000001</v>
       </c>
     </row>
-    <row r="881" spans="1:8">
+    <row r="881" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A881">
         <v>107.4</v>
       </c>
@@ -20358,7 +20402,7 @@
         <v>12.512</v>
       </c>
     </row>
-    <row r="882" spans="1:8">
+    <row r="882" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A882">
         <v>116.4</v>
       </c>
@@ -20384,7 +20428,7 @@
         <v>12.307</v>
       </c>
     </row>
-    <row r="883" spans="1:8">
+    <row r="883" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A883">
         <v>125.3</v>
       </c>
@@ -20410,7 +20454,7 @@
         <v>12.041</v>
       </c>
     </row>
-    <row r="884" spans="1:8">
+    <row r="884" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A884">
         <v>134.30000000000001</v>
       </c>
@@ -20436,7 +20480,7 @@
         <v>11.66</v>
       </c>
     </row>
-    <row r="885" spans="1:8">
+    <row r="885" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A885">
         <v>143.19999999999999</v>
       </c>
@@ -20462,7 +20506,7 @@
         <v>11.329000000000001</v>
       </c>
     </row>
-    <row r="886" spans="1:8">
+    <row r="886" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A886">
         <v>152.19999999999999</v>
       </c>
@@ -20488,7 +20532,7 @@
         <v>11.005000000000001</v>
       </c>
     </row>
-    <row r="887" spans="1:8">
+    <row r="887" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A887">
         <v>161.1</v>
       </c>
@@ -20514,7 +20558,7 @@
         <v>10.648999999999999</v>
       </c>
     </row>
-    <row r="888" spans="1:8">
+    <row r="888" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A888">
         <v>170.1</v>
       </c>
@@ -20540,7 +20584,7 @@
         <v>10.205</v>
       </c>
     </row>
-    <row r="889" spans="1:8">
+    <row r="889" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A889">
         <v>179.1</v>
       </c>
@@ -20566,7 +20610,7 @@
         <v>9.2240000000000002</v>
       </c>
     </row>
-    <row r="890" spans="1:8">
+    <row r="890" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A890">
         <v>188</v>
       </c>
@@ -20592,7 +20636,7 @@
         <v>8.3930000000000007</v>
       </c>
     </row>
-    <row r="891" spans="1:8">
+    <row r="891" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A891">
         <v>197</v>
       </c>
@@ -20618,7 +20662,7 @@
         <v>7.5110000000000001</v>
       </c>
     </row>
-    <row r="892" spans="1:8">
+    <row r="892" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A892">
         <v>205.9</v>
       </c>
@@ -20644,7 +20688,7 @@
         <v>6.69</v>
       </c>
     </row>
-    <row r="893" spans="1:8">
+    <row r="893" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A893">
         <v>214.9</v>
       </c>
@@ -20670,35 +20714,33 @@
         <v>5.6689999999999996</v>
       </c>
     </row>
-    <row r="894" spans="1:8">
+    <row r="894" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A894">
         <v>223.8</v>
       </c>
-      <c r="B894" t="s">
-        <v>48</v>
-      </c>
-      <c r="C894" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D894" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E894" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F894" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G894" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="895" spans="1:8">
+      <c r="B894">
+        <v>1.18</v>
+      </c>
+      <c r="C894">
+        <v>0</v>
+      </c>
+      <c r="D894">
+        <v>0</v>
+      </c>
+      <c r="E894">
+        <v>0</v>
+      </c>
+      <c r="F894">
+        <v>0</v>
+      </c>
+      <c r="G894">
+        <v>0</v>
+      </c>
+      <c r="H894">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="895" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A895">
         <v>232.8</v>
       </c>
@@ -20724,7 +20766,7 @@
         <v>3.4420000000000002</v>
       </c>
     </row>
-    <row r="896" spans="1:8">
+    <row r="896" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A896">
         <v>241.7</v>
       </c>
@@ -20750,60 +20792,56 @@
         <v>2.3959999999999999</v>
       </c>
     </row>
-    <row r="897" spans="1:7">
+    <row r="897" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A897">
         <v>250.7</v>
       </c>
-      <c r="B897" t="s">
-        <v>49</v>
-      </c>
-      <c r="C897" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D897" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E897" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F897" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G897" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="898" spans="1:7">
+      <c r="B897">
+        <v>1.32</v>
+      </c>
+      <c r="C897">
+        <v>0</v>
+      </c>
+      <c r="D897">
+        <v>0</v>
+      </c>
+      <c r="E897">
+        <v>0</v>
+      </c>
+      <c r="F897">
+        <v>0</v>
+      </c>
+      <c r="G897">
+        <v>0</v>
+      </c>
+      <c r="H897">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="898" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A898">
         <v>259.60000000000002</v>
       </c>
-      <c r="B898" t="s">
-        <v>50</v>
-      </c>
-      <c r="C898" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D898" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E898" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F898" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G898" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
+      <c r="B898">
+        <v>1.37</v>
+      </c>
+      <c r="C898">
+        <v>0</v>
+      </c>
+      <c r="D898">
+        <v>0</v>
+      </c>
+      <c r="E898">
+        <v>0</v>
+      </c>
+      <c r="F898">
+        <v>0</v>
+      </c>
+      <c r="G898">
+        <v>0</v>
+      </c>
+      <c r="H898">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -20813,24 +20851,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
